--- a/statestic.xlsx
+++ b/statestic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhi Bhalodia\Desktop\ML\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05AC1F5-0C63-4ECD-8C95-FD7466C6AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8766D9D-BCEF-46F5-8204-2530140C5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{25EC0C76-2C83-4820-9AD5-C29DDC2B9A97}"/>
   </bookViews>
@@ -17,20 +17,8 @@
     <sheet name="assignment_2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">assignment_1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">assignment_1!$A$2:$A$208</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">assignment_1!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">assignment_1!$A$2:$A$208</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">assignment_1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">assignment_1!$B$2:$B$208</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">assignment_1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">assignment_1!$B$2:$B$208</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">assignment_1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">assignment_1!$B$2:$B$208</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">assignment_1!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">assignment_1!$A$2:$A$208</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">assignment_1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">assignment_1!$B$2:$B$208</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">assignment_1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">assignment_1!$B$2:$B$208</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>S. No.</t>
   </si>
@@ -123,12 +111,81 @@
   <si>
     <t>alpha 90%</t>
   </si>
+  <si>
+    <t>(A)confidence 90%</t>
+  </si>
+  <si>
+    <t>(B)confidence 99%</t>
+  </si>
+  <si>
+    <t>(C)confidence 95%</t>
+  </si>
+  <si>
+    <t>Z = -0.05 &amp; +0.950</t>
+  </si>
+  <si>
+    <t>Z = -0.005 &amp; + 0.995</t>
+  </si>
+  <si>
+    <t>Z = -0.025 &amp; + 0.975</t>
+  </si>
+  <si>
+    <t>Z * = -1.65 &amp; +1.65</t>
+  </si>
+  <si>
+    <t>Z* = -2.57 &amp; + 2.57</t>
+  </si>
+  <si>
+    <t>Z* = -1.96 &amp;  +1.96</t>
+  </si>
+  <si>
+    <t>s/sqrt(n)</t>
+  </si>
+  <si>
+    <t>Z* * s/sqrt(n)</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>mean +- z*</t>
+  </si>
+  <si>
+    <t>95% comfidence is under 45600</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>H0 =  &gt;= 2 &amp; Ha = &lt; 2</t>
+  </si>
+  <si>
+    <t>H0 = 66inches &amp; Ha = != 66 inches</t>
+  </si>
+  <si>
+    <t>H0 = &lt;= 5 year &amp; Ha =  &gt;5 yera</t>
+  </si>
+  <si>
+    <t>H0 = &lt;= 45 minutes &amp; Ha = &gt; 45 minutes</t>
+  </si>
+  <si>
+    <t>(A)We want to test whether the mean GPA of students in American colleges is different from 2.0(out of 4.0).</t>
+  </si>
+  <si>
+    <t>(B)We want to test whether the mean height of eighth graders is 66 inches.</t>
+  </si>
+  <si>
+    <t>(C)We want to test if college students take less than five years to graduate from college, on the averag.</t>
+  </si>
+  <si>
+    <t>(D)We want to test if it takes fewer than 45 minutes to teach a lesson plan.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,16 +205,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -413,11 +497,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
@@ -430,15 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,6 +616,33 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +871,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -695,7 +881,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{85CEC5C9-DFAF-4799-A6A6-5464941E6348}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Monthly Rent</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1908,8 +2094,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7877175" y="185737"/>
-              <a:ext cx="4324350" cy="2743200"/>
+              <a:off x="7915275" y="185737"/>
+              <a:ext cx="4324350" cy="2781300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2273,7 +2459,7 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2293,7 +2479,7 @@
       <c r="F2">
         <v>30100</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2313,15 +2499,15 @@
       <c r="F3">
         <v>30500</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2341,7 +2527,7 @@
       <c r="F4">
         <v>30900</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2375,7 +2561,7 @@
       <c r="F5">
         <v>30900</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,7 +2595,7 @@
       <c r="F6">
         <v>31000</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2443,7 +2629,7 @@
       <c r="F7">
         <v>31000</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2477,7 +2663,7 @@
       <c r="F8">
         <v>31900</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2690,7 @@
       <c r="F9">
         <v>32200</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2716,7 @@
       <c r="F10">
         <v>32500</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2557,7 +2743,7 @@
       <c r="F11">
         <v>32700</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2770,7 @@
       <c r="F12">
         <v>32900</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2604,7 +2790,7 @@
       <c r="F13">
         <v>33000</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2624,7 +2810,7 @@
       <c r="F14">
         <v>33100</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2644,7 +2830,7 @@
       <c r="F15">
         <v>33200</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2664,7 +2850,7 @@
       <c r="F16">
         <v>33200</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -2684,7 +2870,7 @@
       <c r="F17">
         <v>33400</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2704,7 +2890,7 @@
       <c r="F18">
         <v>33600</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2724,7 +2910,7 @@
       <c r="F19">
         <v>34100</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2744,7 +2930,7 @@
       <c r="F20">
         <v>34200</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2764,7 +2950,7 @@
       <c r="F21">
         <v>34200</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -2784,7 +2970,7 @@
       <c r="F22">
         <v>34400</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -2804,7 +2990,7 @@
       <c r="F23">
         <v>34400</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2824,7 +3010,7 @@
       <c r="F24">
         <v>35100</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -2844,7 +3030,7 @@
       <c r="F25">
         <v>35700</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -2864,7 +3050,7 @@
       <c r="F26">
         <v>36000</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2884,7 +3070,7 @@
       <c r="F27">
         <v>36600</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -2904,7 +3090,7 @@
       <c r="F28">
         <v>37100</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -2924,7 +3110,7 @@
       <c r="F29">
         <v>37300</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -2944,7 +3130,7 @@
       <c r="F30">
         <v>37800</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -2964,7 +3150,7 @@
       <c r="F31">
         <v>37900</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -2984,7 +3170,7 @@
       <c r="F32">
         <v>38200</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -3004,7 +3190,7 @@
       <c r="F33">
         <v>38200</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -3024,7 +3210,7 @@
       <c r="F34">
         <v>38300</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -3044,7 +3230,7 @@
       <c r="F35">
         <v>38700</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -3064,7 +3250,7 @@
       <c r="F36">
         <v>38900</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -3084,7 +3270,7 @@
       <c r="F37">
         <v>39100</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -3104,7 +3290,7 @@
       <c r="F38">
         <v>39200</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -3124,7 +3310,7 @@
       <c r="F39">
         <v>40000</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -3144,7 +3330,7 @@
       <c r="F40">
         <v>40100</v>
       </c>
-      <c r="G40" s="14"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -3164,7 +3350,7 @@
       <c r="F41">
         <v>40100</v>
       </c>
-      <c r="G41" s="14"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -3184,7 +3370,7 @@
       <c r="F42">
         <v>40400</v>
       </c>
-      <c r="G42" s="14"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -3204,7 +3390,7 @@
       <c r="F43">
         <v>40500</v>
       </c>
-      <c r="G43" s="14"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -3224,7 +3410,7 @@
       <c r="F44">
         <v>40500</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -3244,7 +3430,7 @@
       <c r="F45">
         <v>40700</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -3264,7 +3450,7 @@
       <c r="F46">
         <v>40700</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -3284,7 +3470,7 @@
       <c r="F47">
         <v>40800</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -3304,7 +3490,7 @@
       <c r="F48">
         <v>40900</v>
       </c>
-      <c r="G48" s="14"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -3324,7 +3510,7 @@
       <c r="F49">
         <v>41000</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -3344,7 +3530,7 @@
       <c r="F50">
         <v>41000</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -3364,7 +3550,7 @@
       <c r="F51">
         <v>41100</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52">
@@ -3374,7 +3560,7 @@
       <c r="F52" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -3394,7 +3580,7 @@
       <c r="F53">
         <v>41300</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -3414,7 +3600,7 @@
       <c r="F54">
         <v>41400</v>
       </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -3434,7 +3620,7 @@
       <c r="F55">
         <v>41400</v>
       </c>
-      <c r="G55" s="14"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -3454,7 +3640,7 @@
       <c r="F56">
         <v>41500</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -3474,7 +3660,7 @@
       <c r="F57">
         <v>41600</v>
       </c>
-      <c r="G57" s="14"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -3494,7 +3680,7 @@
       <c r="F58">
         <v>41600</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -3514,7 +3700,7 @@
       <c r="F59">
         <v>41700</v>
       </c>
-      <c r="G59" s="14"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -3534,7 +3720,7 @@
       <c r="F60">
         <v>41700</v>
       </c>
-      <c r="G60" s="14"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -3554,7 +3740,7 @@
       <c r="F61">
         <v>41800</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -3574,7 +3760,7 @@
       <c r="F62">
         <v>41900</v>
       </c>
-      <c r="G62" s="14"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -3594,7 +3780,7 @@
       <c r="F63">
         <v>41900</v>
       </c>
-      <c r="G63" s="14"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -3614,7 +3800,7 @@
       <c r="F64">
         <v>42000</v>
       </c>
-      <c r="G64" s="14"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -3634,7 +3820,7 @@
       <c r="F65">
         <v>42100</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -3654,7 +3840,7 @@
       <c r="F66">
         <v>42200</v>
       </c>
-      <c r="G66" s="14"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -3674,7 +3860,7 @@
       <c r="F67">
         <v>42300</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -3694,7 +3880,7 @@
       <c r="F68">
         <v>42300</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -3714,7 +3900,7 @@
       <c r="F69">
         <v>42300</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70">
@@ -3734,7 +3920,7 @@
       <c r="F70">
         <v>42500</v>
       </c>
-      <c r="G70" s="14"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71">
@@ -3754,7 +3940,7 @@
       <c r="F71">
         <v>42600</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -3774,7 +3960,7 @@
       <c r="F72">
         <v>42600</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -3794,7 +3980,7 @@
       <c r="F73">
         <v>42600</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -3814,7 +4000,7 @@
       <c r="F74">
         <v>42700</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -3834,7 +4020,7 @@
       <c r="F75">
         <v>42900</v>
       </c>
-      <c r="G75" s="14"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -3854,7 +4040,7 @@
       <c r="F76">
         <v>43000</v>
       </c>
-      <c r="G76" s="14"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -3874,7 +4060,7 @@
       <c r="F77">
         <v>43100</v>
       </c>
-      <c r="G77" s="14"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -3894,7 +4080,7 @@
       <c r="F78">
         <v>43100</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -3914,7 +4100,7 @@
       <c r="F79">
         <v>43400</v>
       </c>
-      <c r="G79" s="14"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -3934,7 +4120,7 @@
       <c r="F80">
         <v>43700</v>
       </c>
-      <c r="G80" s="14"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -3954,7 +4140,7 @@
       <c r="F81">
         <v>43700</v>
       </c>
-      <c r="G81" s="14"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -3974,7 +4160,7 @@
       <c r="F82">
         <v>43800</v>
       </c>
-      <c r="G82" s="14"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -3994,7 +4180,7 @@
       <c r="F83">
         <v>43800</v>
       </c>
-      <c r="G83" s="14"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -4014,7 +4200,7 @@
       <c r="F84">
         <v>43900</v>
       </c>
-      <c r="G84" s="14"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -4034,7 +4220,7 @@
       <c r="F85">
         <v>43900</v>
       </c>
-      <c r="G85" s="14"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -4054,7 +4240,7 @@
       <c r="F86">
         <v>43900</v>
       </c>
-      <c r="G86" s="14"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -4074,7 +4260,7 @@
       <c r="F87">
         <v>43900</v>
       </c>
-      <c r="G87" s="14"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -4094,7 +4280,7 @@
       <c r="F88">
         <v>44000</v>
       </c>
-      <c r="G88" s="14"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -4114,7 +4300,7 @@
       <c r="F89">
         <v>44200</v>
       </c>
-      <c r="G89" s="14"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -4134,7 +4320,7 @@
       <c r="F90">
         <v>44300</v>
       </c>
-      <c r="G90" s="14"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -4154,7 +4340,7 @@
       <c r="F91">
         <v>44400</v>
       </c>
-      <c r="G91" s="14"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -4174,7 +4360,7 @@
       <c r="F92">
         <v>44400</v>
       </c>
-      <c r="G92" s="14"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -4194,7 +4380,7 @@
       <c r="F93">
         <v>44600</v>
       </c>
-      <c r="G93" s="14"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -4214,7 +4400,7 @@
       <c r="F94">
         <v>44600</v>
       </c>
-      <c r="G94" s="14"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -4234,7 +4420,7 @@
       <c r="F95">
         <v>44600</v>
       </c>
-      <c r="G95" s="14"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -4254,7 +4440,7 @@
       <c r="F96">
         <v>44600</v>
       </c>
-      <c r="G96" s="14"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -4274,7 +4460,7 @@
       <c r="F97">
         <v>44600</v>
       </c>
-      <c r="G97" s="14"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -4294,7 +4480,7 @@
       <c r="F98">
         <v>44600</v>
       </c>
-      <c r="G98" s="14"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99">
@@ -4314,7 +4500,7 @@
       <c r="F99">
         <v>44700</v>
       </c>
-      <c r="G99" s="14"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -4334,7 +4520,7 @@
       <c r="F100">
         <v>44800</v>
       </c>
-      <c r="G100" s="14"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
@@ -4354,7 +4540,7 @@
       <c r="F101">
         <v>44800</v>
       </c>
-      <c r="G101" s="14"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102">
@@ -4374,7 +4560,7 @@
       <c r="F102">
         <v>44900</v>
       </c>
-      <c r="G102" s="14"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103">
@@ -4384,7 +4570,7 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" s="14"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
@@ -4404,7 +4590,7 @@
       <c r="F104">
         <v>45000</v>
       </c>
-      <c r="G104" s="14"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
@@ -4424,7 +4610,7 @@
       <c r="F105">
         <v>45000</v>
       </c>
-      <c r="G105" s="14"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -4444,7 +4630,7 @@
       <c r="F106">
         <v>45300</v>
       </c>
-      <c r="G106" s="14"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -4464,7 +4650,7 @@
       <c r="F107">
         <v>45400</v>
       </c>
-      <c r="G107" s="14"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -4484,7 +4670,7 @@
       <c r="F108">
         <v>45400</v>
       </c>
-      <c r="G108" s="14"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
@@ -4504,7 +4690,7 @@
       <c r="F109">
         <v>45400</v>
       </c>
-      <c r="G109" s="14"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
@@ -4524,7 +4710,7 @@
       <c r="F110">
         <v>45500</v>
       </c>
-      <c r="G110" s="14"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
@@ -4544,7 +4730,7 @@
       <c r="F111">
         <v>45500</v>
       </c>
-      <c r="G111" s="14"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
@@ -4564,7 +4750,7 @@
       <c r="F112">
         <v>45500</v>
       </c>
-      <c r="G112" s="14"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113">
@@ -4584,7 +4770,7 @@
       <c r="F113">
         <v>45500</v>
       </c>
-      <c r="G113" s="14"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114">
@@ -4604,7 +4790,7 @@
       <c r="F114">
         <v>45800</v>
       </c>
-      <c r="G114" s="14"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115">
@@ -4624,7 +4810,7 @@
       <c r="F115">
         <v>45800</v>
       </c>
-      <c r="G115" s="14"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116">
@@ -4644,7 +4830,7 @@
       <c r="F116">
         <v>46400</v>
       </c>
-      <c r="G116" s="14"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117">
@@ -4664,7 +4850,7 @@
       <c r="F117">
         <v>46500</v>
       </c>
-      <c r="G117" s="14"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
@@ -4684,7 +4870,7 @@
       <c r="F118">
         <v>46700</v>
       </c>
-      <c r="G118" s="14"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119">
@@ -4704,7 +4890,7 @@
       <c r="F119">
         <v>46800</v>
       </c>
-      <c r="G119" s="14"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -4724,7 +4910,7 @@
       <c r="F120">
         <v>46900</v>
       </c>
-      <c r="G120" s="14"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -4744,7 +4930,7 @@
       <c r="F121">
         <v>46900</v>
       </c>
-      <c r="G121" s="14"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
@@ -4764,7 +4950,7 @@
       <c r="F122">
         <v>46900</v>
       </c>
-      <c r="G122" s="14"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
@@ -4784,7 +4970,7 @@
       <c r="F123">
         <v>46900</v>
       </c>
-      <c r="G123" s="14"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124">
@@ -4804,7 +4990,7 @@
       <c r="F124">
         <v>47000</v>
       </c>
-      <c r="G124" s="14"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125">
@@ -4824,7 +5010,7 @@
       <c r="F125">
         <v>47100</v>
       </c>
-      <c r="G125" s="14"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126">
@@ -4844,7 +5030,7 @@
       <c r="F126">
         <v>47100</v>
       </c>
-      <c r="G126" s="14"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127">
@@ -4864,7 +5050,7 @@
       <c r="F127">
         <v>47300</v>
       </c>
-      <c r="G127" s="14"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128">
@@ -4884,7 +5070,7 @@
       <c r="F128">
         <v>47300</v>
       </c>
-      <c r="G128" s="14"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129">
@@ -4904,7 +5090,7 @@
       <c r="F129">
         <v>47500</v>
       </c>
-      <c r="G129" s="14"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130">
@@ -4924,7 +5110,7 @@
       <c r="F130">
         <v>47700</v>
       </c>
-      <c r="G130" s="14"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131">
@@ -4944,7 +5130,7 @@
       <c r="F131">
         <v>47800</v>
       </c>
-      <c r="G131" s="14"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132">
@@ -4964,7 +5150,7 @@
       <c r="F132">
         <v>47800</v>
       </c>
-      <c r="G132" s="14"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133">
@@ -4984,7 +5170,7 @@
       <c r="F133">
         <v>48000</v>
       </c>
-      <c r="G133" s="14"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134">
@@ -5004,7 +5190,7 @@
       <c r="F134">
         <v>48100</v>
       </c>
-      <c r="G134" s="14"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135">
@@ -5024,7 +5210,7 @@
       <c r="F135">
         <v>48100</v>
       </c>
-      <c r="G135" s="14"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136">
@@ -5044,7 +5230,7 @@
       <c r="F136">
         <v>48100</v>
       </c>
-      <c r="G136" s="14"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137">
@@ -5064,7 +5250,7 @@
       <c r="F137">
         <v>48300</v>
       </c>
-      <c r="G137" s="14"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138">
@@ -5084,7 +5270,7 @@
       <c r="F138">
         <v>48600</v>
       </c>
-      <c r="G138" s="14"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139">
@@ -5104,7 +5290,7 @@
       <c r="F139">
         <v>48600</v>
       </c>
-      <c r="G139" s="14"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140">
@@ -5124,7 +5310,7 @@
       <c r="F140">
         <v>48700</v>
       </c>
-      <c r="G140" s="14"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141">
@@ -5144,7 +5330,7 @@
       <c r="F141">
         <v>48800</v>
       </c>
-      <c r="G141" s="14"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142">
@@ -5164,7 +5350,7 @@
       <c r="F142">
         <v>48900</v>
       </c>
-      <c r="G142" s="14"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143">
@@ -5184,7 +5370,7 @@
       <c r="F143">
         <v>49000</v>
       </c>
-      <c r="G143" s="14"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144">
@@ -5204,7 +5390,7 @@
       <c r="F144">
         <v>49000</v>
       </c>
-      <c r="G144" s="14"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145">
@@ -5224,7 +5410,7 @@
       <c r="F145">
         <v>49200</v>
       </c>
-      <c r="G145" s="14"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146">
@@ -5244,7 +5430,7 @@
       <c r="F146">
         <v>49400</v>
       </c>
-      <c r="G146" s="14"/>
+      <c r="G146" s="11"/>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147">
@@ -5264,7 +5450,7 @@
       <c r="F147">
         <v>49400</v>
       </c>
-      <c r="G147" s="14"/>
+      <c r="G147" s="11"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -5284,7 +5470,7 @@
       <c r="F148">
         <v>49500</v>
       </c>
-      <c r="G148" s="14"/>
+      <c r="G148" s="11"/>
     </row>
     <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -5304,7 +5490,7 @@
       <c r="F149">
         <v>49600</v>
       </c>
-      <c r="G149" s="14"/>
+      <c r="G149" s="11"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150">
@@ -5324,7 +5510,7 @@
       <c r="F150">
         <v>49700</v>
       </c>
-      <c r="G150" s="14"/>
+      <c r="G150" s="11"/>
     </row>
     <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151">
@@ -5344,7 +5530,7 @@
       <c r="F151">
         <v>49700</v>
       </c>
-      <c r="G151" s="14"/>
+      <c r="G151" s="11"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152">
@@ -5364,7 +5550,7 @@
       <c r="F152">
         <v>49800</v>
       </c>
-      <c r="G152" s="14"/>
+      <c r="G152" s="11"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -5384,7 +5570,7 @@
       <c r="F153">
         <v>49800</v>
       </c>
-      <c r="G153" s="14"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154">
@@ -5394,7 +5580,7 @@
       <c r="F154" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="14"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -5414,7 +5600,7 @@
       <c r="F155">
         <v>49900</v>
       </c>
-      <c r="G155" s="14"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156">
@@ -5434,7 +5620,7 @@
       <c r="F156">
         <v>50400</v>
       </c>
-      <c r="G156" s="14"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
@@ -5454,7 +5640,7 @@
       <c r="F157">
         <v>50600</v>
       </c>
-      <c r="G157" s="14"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158">
@@ -5474,7 +5660,7 @@
       <c r="F158">
         <v>50700</v>
       </c>
-      <c r="G158" s="14"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -5494,7 +5680,7 @@
       <c r="F159">
         <v>51100</v>
       </c>
-      <c r="G159" s="14"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160">
@@ -5514,7 +5700,7 @@
       <c r="F160">
         <v>51200</v>
       </c>
-      <c r="G160" s="14"/>
+      <c r="G160" s="11"/>
     </row>
     <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161">
@@ -5534,7 +5720,7 @@
       <c r="F161">
         <v>51300</v>
       </c>
-      <c r="G161" s="14"/>
+      <c r="G161" s="11"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162">
@@ -5554,7 +5740,7 @@
       <c r="F162">
         <v>51600</v>
       </c>
-      <c r="G162" s="14"/>
+      <c r="G162" s="11"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163">
@@ -5574,7 +5760,7 @@
       <c r="F163">
         <v>51700</v>
       </c>
-      <c r="G163" s="14"/>
+      <c r="G163" s="11"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164">
@@ -5594,7 +5780,7 @@
       <c r="F164">
         <v>51800</v>
       </c>
-      <c r="G164" s="14"/>
+      <c r="G164" s="11"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165">
@@ -5614,7 +5800,7 @@
       <c r="F165">
         <v>51900</v>
       </c>
-      <c r="G165" s="14"/>
+      <c r="G165" s="11"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166">
@@ -5634,7 +5820,7 @@
       <c r="F166">
         <v>51900</v>
       </c>
-      <c r="G166" s="14"/>
+      <c r="G166" s="11"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167">
@@ -5654,7 +5840,7 @@
       <c r="F167">
         <v>52000</v>
       </c>
-      <c r="G167" s="14"/>
+      <c r="G167" s="11"/>
     </row>
     <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168">
@@ -5674,7 +5860,7 @@
       <c r="F168">
         <v>52600</v>
       </c>
-      <c r="G168" s="14"/>
+      <c r="G168" s="11"/>
     </row>
     <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169">
@@ -5694,7 +5880,7 @@
       <c r="F169">
         <v>52600</v>
       </c>
-      <c r="G169" s="14"/>
+      <c r="G169" s="11"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170">
@@ -5714,7 +5900,7 @@
       <c r="F170">
         <v>53100</v>
       </c>
-      <c r="G170" s="14"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171">
@@ -5734,7 +5920,7 @@
       <c r="F171">
         <v>53200</v>
       </c>
-      <c r="G171" s="14"/>
+      <c r="G171" s="11"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
@@ -5754,7 +5940,7 @@
       <c r="F172">
         <v>53900</v>
       </c>
-      <c r="G172" s="14"/>
+      <c r="G172" s="11"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173">
@@ -5774,7 +5960,7 @@
       <c r="F173">
         <v>53900</v>
       </c>
-      <c r="G173" s="14"/>
+      <c r="G173" s="11"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174">
@@ -5794,7 +5980,7 @@
       <c r="F174">
         <v>54300</v>
       </c>
-      <c r="G174" s="14"/>
+      <c r="G174" s="11"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175">
@@ -5814,7 +6000,7 @@
       <c r="F175">
         <v>55000</v>
       </c>
-      <c r="G175" s="14"/>
+      <c r="G175" s="11"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176">
@@ -5834,7 +6020,7 @@
       <c r="F176">
         <v>55000</v>
       </c>
-      <c r="G176" s="14"/>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177">
@@ -5854,7 +6040,7 @@
       <c r="F177">
         <v>55100</v>
       </c>
-      <c r="G177" s="14"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178">
@@ -5874,7 +6060,7 @@
       <c r="F178">
         <v>55200</v>
       </c>
-      <c r="G178" s="14"/>
+      <c r="G178" s="11"/>
     </row>
     <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179">
@@ -5894,7 +6080,7 @@
       <c r="F179">
         <v>55400</v>
       </c>
-      <c r="G179" s="14"/>
+      <c r="G179" s="11"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180">
@@ -5914,7 +6100,7 @@
       <c r="F180">
         <v>55700</v>
       </c>
-      <c r="G180" s="14"/>
+      <c r="G180" s="11"/>
     </row>
     <row r="181" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181">
@@ -5934,7 +6120,7 @@
       <c r="F181">
         <v>55800</v>
       </c>
-      <c r="G181" s="14"/>
+      <c r="G181" s="11"/>
     </row>
     <row r="182" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182">
@@ -5954,7 +6140,7 @@
       <c r="F182">
         <v>56900</v>
       </c>
-      <c r="G182" s="14"/>
+      <c r="G182" s="11"/>
     </row>
     <row r="183" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183">
@@ -5974,7 +6160,7 @@
       <c r="F183">
         <v>57200</v>
       </c>
-      <c r="G183" s="14"/>
+      <c r="G183" s="11"/>
     </row>
     <row r="184" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184">
@@ -5994,7 +6180,7 @@
       <c r="F184">
         <v>57200</v>
       </c>
-      <c r="G184" s="14"/>
+      <c r="G184" s="11"/>
     </row>
     <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185">
@@ -6014,7 +6200,7 @@
       <c r="F185">
         <v>57700</v>
       </c>
-      <c r="G185" s="14"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186">
@@ -6034,7 +6220,7 @@
       <c r="F186">
         <v>57700</v>
       </c>
-      <c r="G186" s="14"/>
+      <c r="G186" s="11"/>
     </row>
     <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187">
@@ -6054,7 +6240,7 @@
       <c r="F187">
         <v>57800</v>
       </c>
-      <c r="G187" s="14"/>
+      <c r="G187" s="11"/>
     </row>
     <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -6074,7 +6260,7 @@
       <c r="F188">
         <v>58000</v>
       </c>
-      <c r="G188" s="14"/>
+      <c r="G188" s="11"/>
     </row>
     <row r="189" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189">
@@ -6094,7 +6280,7 @@
       <c r="F189">
         <v>58200</v>
       </c>
-      <c r="G189" s="14"/>
+      <c r="G189" s="11"/>
     </row>
     <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190">
@@ -6114,7 +6300,7 @@
       <c r="F190">
         <v>58200</v>
       </c>
-      <c r="G190" s="14"/>
+      <c r="G190" s="11"/>
     </row>
     <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191">
@@ -6134,7 +6320,7 @@
       <c r="F191">
         <v>58300</v>
       </c>
-      <c r="G191" s="14"/>
+      <c r="G191" s="11"/>
     </row>
     <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192">
@@ -6154,7 +6340,7 @@
       <c r="F192">
         <v>58500</v>
       </c>
-      <c r="G192" s="14"/>
+      <c r="G192" s="11"/>
     </row>
     <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193">
@@ -6174,7 +6360,7 @@
       <c r="F193">
         <v>58600</v>
       </c>
-      <c r="G193" s="14"/>
+      <c r="G193" s="11"/>
     </row>
     <row r="194" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194">
@@ -6194,7 +6380,7 @@
       <c r="F194">
         <v>58600</v>
       </c>
-      <c r="G194" s="14"/>
+      <c r="G194" s="11"/>
     </row>
     <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195">
@@ -6214,7 +6400,7 @@
       <c r="F195">
         <v>58600</v>
       </c>
-      <c r="G195" s="14"/>
+      <c r="G195" s="11"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196">
@@ -6234,7 +6420,7 @@
       <c r="F196">
         <v>58900</v>
       </c>
-      <c r="G196" s="14"/>
+      <c r="G196" s="11"/>
     </row>
     <row r="197" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197">
@@ -6254,7 +6440,7 @@
       <c r="F197">
         <v>58900</v>
       </c>
-      <c r="G197" s="14"/>
+      <c r="G197" s="11"/>
     </row>
     <row r="198" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198">
@@ -6274,7 +6460,7 @@
       <c r="F198">
         <v>58900</v>
       </c>
-      <c r="G198" s="14"/>
+      <c r="G198" s="11"/>
     </row>
     <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199">
@@ -6294,7 +6480,7 @@
       <c r="F199">
         <v>59100</v>
       </c>
-      <c r="G199" s="14"/>
+      <c r="G199" s="11"/>
     </row>
     <row r="200" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200">
@@ -6314,7 +6500,7 @@
       <c r="F200">
         <v>59500</v>
       </c>
-      <c r="G200" s="14"/>
+      <c r="G200" s="11"/>
     </row>
     <row r="201" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201">
@@ -6334,7 +6520,7 @@
       <c r="F201">
         <v>59600</v>
       </c>
-      <c r="G201" s="14"/>
+      <c r="G201" s="11"/>
     </row>
     <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -6354,7 +6540,7 @@
       <c r="F202">
         <v>59800</v>
       </c>
-      <c r="G202" s="13"/>
+      <c r="G202" s="10"/>
     </row>
     <row r="203" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203">
@@ -6374,7 +6560,7 @@
       <c r="F203">
         <v>59800</v>
       </c>
-      <c r="G203" s="13"/>
+      <c r="G203" s="10"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204">
@@ -6394,2396 +6580,2396 @@
       <c r="F204">
         <v>59800</v>
       </c>
-      <c r="G204" s="13"/>
+      <c r="G204" s="10"/>
     </row>
     <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G205" s="13"/>
+      <c r="G205" s="10"/>
     </row>
     <row r="206" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
-      <c r="G206" s="13"/>
+      <c r="G206" s="10"/>
     </row>
     <row r="207" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G207" s="13"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G208" s="13"/>
+      <c r="G208" s="10"/>
     </row>
     <row r="209" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G209" s="13"/>
+      <c r="G209" s="10"/>
     </row>
     <row r="210" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G210" s="13"/>
+      <c r="G210" s="10"/>
     </row>
     <row r="211" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G211" s="13"/>
+      <c r="G211" s="10"/>
     </row>
     <row r="212" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G212" s="13"/>
+      <c r="G212" s="10"/>
     </row>
     <row r="213" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G213" s="13"/>
+      <c r="G213" s="10"/>
     </row>
     <row r="214" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G214" s="13"/>
+      <c r="G214" s="10"/>
     </row>
     <row r="215" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G215" s="13"/>
+      <c r="G215" s="10"/>
     </row>
     <row r="216" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G216" s="13"/>
+      <c r="G216" s="10"/>
     </row>
     <row r="217" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G217" s="13"/>
+      <c r="G217" s="10"/>
     </row>
     <row r="218" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G218" s="13"/>
+      <c r="G218" s="10"/>
     </row>
     <row r="219" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G219" s="13"/>
+      <c r="G219" s="10"/>
     </row>
     <row r="220" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G220" s="13"/>
+      <c r="G220" s="10"/>
     </row>
     <row r="221" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G221" s="13"/>
+      <c r="G221" s="10"/>
     </row>
     <row r="222" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G222" s="13"/>
+      <c r="G222" s="10"/>
     </row>
     <row r="223" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G223" s="13"/>
+      <c r="G223" s="10"/>
     </row>
     <row r="224" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G224" s="13"/>
+      <c r="G224" s="10"/>
     </row>
     <row r="225" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G225" s="13"/>
+      <c r="G225" s="10"/>
     </row>
     <row r="226" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G226" s="13"/>
+      <c r="G226" s="10"/>
     </row>
     <row r="227" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G227" s="13"/>
+      <c r="G227" s="10"/>
     </row>
     <row r="228" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G228" s="13"/>
+      <c r="G228" s="10"/>
     </row>
     <row r="229" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G229" s="13"/>
+      <c r="G229" s="10"/>
     </row>
     <row r="230" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G230" s="13"/>
+      <c r="G230" s="10"/>
     </row>
     <row r="231" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G231" s="13"/>
+      <c r="G231" s="10"/>
     </row>
     <row r="232" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G232" s="13"/>
+      <c r="G232" s="10"/>
     </row>
     <row r="233" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G233" s="13"/>
+      <c r="G233" s="10"/>
     </row>
     <row r="234" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G234" s="13"/>
+      <c r="G234" s="10"/>
     </row>
     <row r="235" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G235" s="13"/>
+      <c r="G235" s="10"/>
     </row>
     <row r="236" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G236" s="13"/>
+      <c r="G236" s="10"/>
     </row>
     <row r="237" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G237" s="13"/>
+      <c r="G237" s="10"/>
     </row>
     <row r="238" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G238" s="13"/>
+      <c r="G238" s="10"/>
     </row>
     <row r="239" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G239" s="13"/>
+      <c r="G239" s="10"/>
     </row>
     <row r="240" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G240" s="13"/>
+      <c r="G240" s="10"/>
     </row>
     <row r="241" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G241" s="13"/>
+      <c r="G241" s="10"/>
     </row>
     <row r="242" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G242" s="13"/>
+      <c r="G242" s="10"/>
     </row>
     <row r="243" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G243" s="13"/>
+      <c r="G243" s="10"/>
     </row>
     <row r="244" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G244" s="13"/>
+      <c r="G244" s="10"/>
     </row>
     <row r="245" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G245" s="13"/>
+      <c r="G245" s="10"/>
     </row>
     <row r="246" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G246" s="13"/>
+      <c r="G246" s="10"/>
     </row>
     <row r="247" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G247" s="13"/>
+      <c r="G247" s="10"/>
     </row>
     <row r="248" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G248" s="13"/>
+      <c r="G248" s="10"/>
     </row>
     <row r="249" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G249" s="13"/>
+      <c r="G249" s="10"/>
     </row>
     <row r="250" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G250" s="13"/>
+      <c r="G250" s="10"/>
     </row>
     <row r="251" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G251" s="13"/>
+      <c r="G251" s="10"/>
     </row>
     <row r="252" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G252" s="13"/>
+      <c r="G252" s="10"/>
     </row>
     <row r="253" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G253" s="13"/>
+      <c r="G253" s="10"/>
     </row>
     <row r="254" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G254" s="13"/>
+      <c r="G254" s="10"/>
     </row>
     <row r="255" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G255" s="13"/>
+      <c r="G255" s="10"/>
     </row>
     <row r="256" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G256" s="13"/>
+      <c r="G256" s="10"/>
     </row>
     <row r="257" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G257" s="13"/>
+      <c r="G257" s="10"/>
     </row>
     <row r="258" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G258" s="13"/>
+      <c r="G258" s="10"/>
     </row>
     <row r="259" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G259" s="13"/>
+      <c r="G259" s="10"/>
     </row>
     <row r="260" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G260" s="13"/>
+      <c r="G260" s="10"/>
     </row>
     <row r="261" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G261" s="13"/>
+      <c r="G261" s="10"/>
     </row>
     <row r="262" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G262" s="13"/>
+      <c r="G262" s="10"/>
     </row>
     <row r="263" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G263" s="13"/>
+      <c r="G263" s="10"/>
     </row>
     <row r="264" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G264" s="13"/>
+      <c r="G264" s="10"/>
     </row>
     <row r="265" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G265" s="13"/>
+      <c r="G265" s="10"/>
     </row>
     <row r="266" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G266" s="13"/>
+      <c r="G266" s="10"/>
     </row>
     <row r="267" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G267" s="13"/>
+      <c r="G267" s="10"/>
     </row>
     <row r="268" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G268" s="13"/>
+      <c r="G268" s="10"/>
     </row>
     <row r="269" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G269" s="13"/>
+      <c r="G269" s="10"/>
     </row>
     <row r="270" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G270" s="13"/>
+      <c r="G270" s="10"/>
     </row>
     <row r="271" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G271" s="13"/>
+      <c r="G271" s="10"/>
     </row>
     <row r="272" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G272" s="13"/>
+      <c r="G272" s="10"/>
     </row>
     <row r="273" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G273" s="13"/>
+      <c r="G273" s="10"/>
     </row>
     <row r="274" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G274" s="13"/>
+      <c r="G274" s="10"/>
     </row>
     <row r="275" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G275" s="13"/>
+      <c r="G275" s="10"/>
     </row>
     <row r="276" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G276" s="13"/>
+      <c r="G276" s="10"/>
     </row>
     <row r="277" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G277" s="13"/>
+      <c r="G277" s="10"/>
     </row>
     <row r="278" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G278" s="13"/>
+      <c r="G278" s="10"/>
     </row>
     <row r="279" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G279" s="13"/>
+      <c r="G279" s="10"/>
     </row>
     <row r="280" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G280" s="13"/>
+      <c r="G280" s="10"/>
     </row>
     <row r="281" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G281" s="13"/>
+      <c r="G281" s="10"/>
     </row>
     <row r="282" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G282" s="13"/>
+      <c r="G282" s="10"/>
     </row>
     <row r="283" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G283" s="13"/>
+      <c r="G283" s="10"/>
     </row>
     <row r="284" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G284" s="13"/>
+      <c r="G284" s="10"/>
     </row>
     <row r="285" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G285" s="13"/>
+      <c r="G285" s="10"/>
     </row>
     <row r="286" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G286" s="13"/>
+      <c r="G286" s="10"/>
     </row>
     <row r="287" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G287" s="13"/>
+      <c r="G287" s="10"/>
     </row>
     <row r="288" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G288" s="13"/>
+      <c r="G288" s="10"/>
     </row>
     <row r="289" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G289" s="13"/>
+      <c r="G289" s="10"/>
     </row>
     <row r="290" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G290" s="13"/>
+      <c r="G290" s="10"/>
     </row>
     <row r="291" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G291" s="13"/>
+      <c r="G291" s="10"/>
     </row>
     <row r="292" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G292" s="13"/>
+      <c r="G292" s="10"/>
     </row>
     <row r="293" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G293" s="13"/>
+      <c r="G293" s="10"/>
     </row>
     <row r="294" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G294" s="13"/>
+      <c r="G294" s="10"/>
     </row>
     <row r="295" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G295" s="13"/>
+      <c r="G295" s="10"/>
     </row>
     <row r="296" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G296" s="13"/>
+      <c r="G296" s="10"/>
     </row>
     <row r="297" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G297" s="13"/>
+      <c r="G297" s="10"/>
     </row>
     <row r="298" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G298" s="13"/>
+      <c r="G298" s="10"/>
     </row>
     <row r="299" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G299" s="13"/>
+      <c r="G299" s="10"/>
     </row>
     <row r="300" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G300" s="13"/>
+      <c r="G300" s="10"/>
     </row>
     <row r="301" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G301" s="13"/>
+      <c r="G301" s="10"/>
     </row>
     <row r="302" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G302" s="13"/>
+      <c r="G302" s="10"/>
     </row>
     <row r="303" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G303" s="13"/>
+      <c r="G303" s="10"/>
     </row>
     <row r="304" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G304" s="13"/>
+      <c r="G304" s="10"/>
     </row>
     <row r="305" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G305" s="13"/>
+      <c r="G305" s="10"/>
     </row>
     <row r="306" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G306" s="13"/>
+      <c r="G306" s="10"/>
     </row>
     <row r="307" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G307" s="13"/>
+      <c r="G307" s="10"/>
     </row>
     <row r="308" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G308" s="13"/>
+      <c r="G308" s="10"/>
     </row>
     <row r="309" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G309" s="13"/>
+      <c r="G309" s="10"/>
     </row>
     <row r="310" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G310" s="13"/>
+      <c r="G310" s="10"/>
     </row>
     <row r="311" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G311" s="13"/>
+      <c r="G311" s="10"/>
     </row>
     <row r="312" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G312" s="13"/>
+      <c r="G312" s="10"/>
     </row>
     <row r="313" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G313" s="13"/>
+      <c r="G313" s="10"/>
     </row>
     <row r="314" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G314" s="13"/>
+      <c r="G314" s="10"/>
     </row>
     <row r="315" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G315" s="13"/>
+      <c r="G315" s="10"/>
     </row>
     <row r="316" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G316" s="13"/>
+      <c r="G316" s="10"/>
     </row>
     <row r="317" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G317" s="13"/>
+      <c r="G317" s="10"/>
     </row>
     <row r="318" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G318" s="13"/>
+      <c r="G318" s="10"/>
     </row>
     <row r="319" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G319" s="13"/>
+      <c r="G319" s="10"/>
     </row>
     <row r="320" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G320" s="13"/>
+      <c r="G320" s="10"/>
     </row>
     <row r="321" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G321" s="13"/>
+      <c r="G321" s="10"/>
     </row>
     <row r="322" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G322" s="13"/>
+      <c r="G322" s="10"/>
     </row>
     <row r="323" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G323" s="13"/>
+      <c r="G323" s="10"/>
     </row>
     <row r="324" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G324" s="13"/>
+      <c r="G324" s="10"/>
     </row>
     <row r="325" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G325" s="13"/>
+      <c r="G325" s="10"/>
     </row>
     <row r="326" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G326" s="13"/>
+      <c r="G326" s="10"/>
     </row>
     <row r="327" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G327" s="13"/>
+      <c r="G327" s="10"/>
     </row>
     <row r="328" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G328" s="13"/>
+      <c r="G328" s="10"/>
     </row>
     <row r="329" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G329" s="13"/>
+      <c r="G329" s="10"/>
     </row>
     <row r="330" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G330" s="13"/>
+      <c r="G330" s="10"/>
     </row>
     <row r="331" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G331" s="13"/>
+      <c r="G331" s="10"/>
     </row>
     <row r="332" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G332" s="13"/>
+      <c r="G332" s="10"/>
     </row>
     <row r="333" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G333" s="13"/>
+      <c r="G333" s="10"/>
     </row>
     <row r="334" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G334" s="13"/>
+      <c r="G334" s="10"/>
     </row>
     <row r="335" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G335" s="13"/>
+      <c r="G335" s="10"/>
     </row>
     <row r="336" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G336" s="13"/>
+      <c r="G336" s="10"/>
     </row>
     <row r="337" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G337" s="13"/>
+      <c r="G337" s="10"/>
     </row>
     <row r="338" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G338" s="13"/>
+      <c r="G338" s="10"/>
     </row>
     <row r="339" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G339" s="13"/>
+      <c r="G339" s="10"/>
     </row>
     <row r="340" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G340" s="13"/>
+      <c r="G340" s="10"/>
     </row>
     <row r="341" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G341" s="13"/>
+      <c r="G341" s="10"/>
     </row>
     <row r="342" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G342" s="13"/>
+      <c r="G342" s="10"/>
     </row>
     <row r="343" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G343" s="13"/>
+      <c r="G343" s="10"/>
     </row>
     <row r="344" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G344" s="13"/>
+      <c r="G344" s="10"/>
     </row>
     <row r="345" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G345" s="13"/>
+      <c r="G345" s="10"/>
     </row>
     <row r="346" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G346" s="13"/>
+      <c r="G346" s="10"/>
     </row>
     <row r="347" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G347" s="13"/>
+      <c r="G347" s="10"/>
     </row>
     <row r="348" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G348" s="13"/>
+      <c r="G348" s="10"/>
     </row>
     <row r="349" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G349" s="13"/>
+      <c r="G349" s="10"/>
     </row>
     <row r="350" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G350" s="13"/>
+      <c r="G350" s="10"/>
     </row>
     <row r="351" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G351" s="13"/>
+      <c r="G351" s="10"/>
     </row>
     <row r="352" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G352" s="13"/>
+      <c r="G352" s="10"/>
     </row>
     <row r="353" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G353" s="13"/>
+      <c r="G353" s="10"/>
     </row>
     <row r="354" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G354" s="13"/>
+      <c r="G354" s="10"/>
     </row>
     <row r="355" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G355" s="13"/>
+      <c r="G355" s="10"/>
     </row>
     <row r="356" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G356" s="13"/>
+      <c r="G356" s="10"/>
     </row>
     <row r="357" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G357" s="13"/>
+      <c r="G357" s="10"/>
     </row>
     <row r="358" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G358" s="13"/>
+      <c r="G358" s="10"/>
     </row>
     <row r="359" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G359" s="13"/>
+      <c r="G359" s="10"/>
     </row>
     <row r="360" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G360" s="13"/>
+      <c r="G360" s="10"/>
     </row>
     <row r="361" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G361" s="13"/>
+      <c r="G361" s="10"/>
     </row>
     <row r="362" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G362" s="13"/>
+      <c r="G362" s="10"/>
     </row>
     <row r="363" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G363" s="13"/>
+      <c r="G363" s="10"/>
     </row>
     <row r="364" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G364" s="13"/>
+      <c r="G364" s="10"/>
     </row>
     <row r="365" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G365" s="13"/>
+      <c r="G365" s="10"/>
     </row>
     <row r="366" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G366" s="13"/>
+      <c r="G366" s="10"/>
     </row>
     <row r="367" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G367" s="13"/>
+      <c r="G367" s="10"/>
     </row>
     <row r="368" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G368" s="13"/>
+      <c r="G368" s="10"/>
     </row>
     <row r="369" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G369" s="13"/>
+      <c r="G369" s="10"/>
     </row>
     <row r="370" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G370" s="13"/>
+      <c r="G370" s="10"/>
     </row>
     <row r="371" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G371" s="13"/>
+      <c r="G371" s="10"/>
     </row>
     <row r="372" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G372" s="13"/>
+      <c r="G372" s="10"/>
     </row>
     <row r="373" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G373" s="13"/>
+      <c r="G373" s="10"/>
     </row>
     <row r="374" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G374" s="13"/>
+      <c r="G374" s="10"/>
     </row>
     <row r="375" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G375" s="13"/>
+      <c r="G375" s="10"/>
     </row>
     <row r="376" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G376" s="13"/>
+      <c r="G376" s="10"/>
     </row>
     <row r="377" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G377" s="13"/>
+      <c r="G377" s="10"/>
     </row>
     <row r="378" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G378" s="13"/>
+      <c r="G378" s="10"/>
     </row>
     <row r="379" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G379" s="13"/>
+      <c r="G379" s="10"/>
     </row>
     <row r="380" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G380" s="13"/>
+      <c r="G380" s="10"/>
     </row>
     <row r="381" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G381" s="13"/>
+      <c r="G381" s="10"/>
     </row>
     <row r="382" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G382" s="13"/>
+      <c r="G382" s="10"/>
     </row>
     <row r="383" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G383" s="13"/>
+      <c r="G383" s="10"/>
     </row>
     <row r="384" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G384" s="13"/>
+      <c r="G384" s="10"/>
     </row>
     <row r="385" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G385" s="13"/>
+      <c r="G385" s="10"/>
     </row>
     <row r="386" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G386" s="13"/>
+      <c r="G386" s="10"/>
     </row>
     <row r="387" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G387" s="13"/>
+      <c r="G387" s="10"/>
     </row>
     <row r="388" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G388" s="13"/>
+      <c r="G388" s="10"/>
     </row>
     <row r="389" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G389" s="13"/>
+      <c r="G389" s="10"/>
     </row>
     <row r="390" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G390" s="13"/>
+      <c r="G390" s="10"/>
     </row>
     <row r="391" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G391" s="13"/>
+      <c r="G391" s="10"/>
     </row>
     <row r="392" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G392" s="13"/>
+      <c r="G392" s="10"/>
     </row>
     <row r="393" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G393" s="13"/>
+      <c r="G393" s="10"/>
     </row>
     <row r="394" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G394" s="13"/>
+      <c r="G394" s="10"/>
     </row>
     <row r="395" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G395" s="13"/>
+      <c r="G395" s="10"/>
     </row>
     <row r="396" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G396" s="13"/>
+      <c r="G396" s="10"/>
     </row>
     <row r="397" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G397" s="13"/>
+      <c r="G397" s="10"/>
     </row>
     <row r="398" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G398" s="13"/>
+      <c r="G398" s="10"/>
     </row>
     <row r="399" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G399" s="13"/>
+      <c r="G399" s="10"/>
     </row>
     <row r="400" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G400" s="13"/>
+      <c r="G400" s="10"/>
     </row>
     <row r="401" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G401" s="13"/>
+      <c r="G401" s="10"/>
     </row>
     <row r="402" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G402" s="13"/>
+      <c r="G402" s="10"/>
     </row>
     <row r="403" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G403" s="13"/>
+      <c r="G403" s="10"/>
     </row>
     <row r="404" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G404" s="13"/>
+      <c r="G404" s="10"/>
     </row>
     <row r="405" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G405" s="13"/>
+      <c r="G405" s="10"/>
     </row>
     <row r="406" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G406" s="13"/>
+      <c r="G406" s="10"/>
     </row>
     <row r="407" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G407" s="13"/>
+      <c r="G407" s="10"/>
     </row>
     <row r="408" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G408" s="13"/>
+      <c r="G408" s="10"/>
     </row>
     <row r="409" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G409" s="13"/>
+      <c r="G409" s="10"/>
     </row>
     <row r="410" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G410" s="13"/>
+      <c r="G410" s="10"/>
     </row>
     <row r="411" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G411" s="13"/>
+      <c r="G411" s="10"/>
     </row>
     <row r="412" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G412" s="13"/>
+      <c r="G412" s="10"/>
     </row>
     <row r="413" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G413" s="13"/>
+      <c r="G413" s="10"/>
     </row>
     <row r="414" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G414" s="13"/>
+      <c r="G414" s="10"/>
     </row>
     <row r="415" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G415" s="13"/>
+      <c r="G415" s="10"/>
     </row>
     <row r="416" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G416" s="13"/>
+      <c r="G416" s="10"/>
     </row>
     <row r="417" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G417" s="13"/>
+      <c r="G417" s="10"/>
     </row>
     <row r="418" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G418" s="13"/>
+      <c r="G418" s="10"/>
     </row>
     <row r="419" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G419" s="13"/>
+      <c r="G419" s="10"/>
     </row>
     <row r="420" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G420" s="13"/>
+      <c r="G420" s="10"/>
     </row>
     <row r="421" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G421" s="13"/>
+      <c r="G421" s="10"/>
     </row>
     <row r="422" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G422" s="13"/>
+      <c r="G422" s="10"/>
     </row>
     <row r="423" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G423" s="13"/>
+      <c r="G423" s="10"/>
     </row>
     <row r="424" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G424" s="13"/>
+      <c r="G424" s="10"/>
     </row>
     <row r="425" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G425" s="13"/>
+      <c r="G425" s="10"/>
     </row>
     <row r="426" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G426" s="13"/>
+      <c r="G426" s="10"/>
     </row>
     <row r="427" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G427" s="13"/>
+      <c r="G427" s="10"/>
     </row>
     <row r="428" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G428" s="13"/>
+      <c r="G428" s="10"/>
     </row>
     <row r="429" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G429" s="13"/>
+      <c r="G429" s="10"/>
     </row>
     <row r="430" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G430" s="13"/>
+      <c r="G430" s="10"/>
     </row>
     <row r="431" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G431" s="13"/>
+      <c r="G431" s="10"/>
     </row>
     <row r="432" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G432" s="13"/>
+      <c r="G432" s="10"/>
     </row>
     <row r="433" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G433" s="13"/>
+      <c r="G433" s="10"/>
     </row>
     <row r="434" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G434" s="13"/>
+      <c r="G434" s="10"/>
     </row>
     <row r="435" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G435" s="13"/>
+      <c r="G435" s="10"/>
     </row>
     <row r="436" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G436" s="13"/>
+      <c r="G436" s="10"/>
     </row>
     <row r="437" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G437" s="13"/>
+      <c r="G437" s="10"/>
     </row>
     <row r="438" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G438" s="13"/>
+      <c r="G438" s="10"/>
     </row>
     <row r="439" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G439" s="13"/>
+      <c r="G439" s="10"/>
     </row>
     <row r="440" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G440" s="13"/>
+      <c r="G440" s="10"/>
     </row>
     <row r="441" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G441" s="13"/>
+      <c r="G441" s="10"/>
     </row>
     <row r="442" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G442" s="13"/>
+      <c r="G442" s="10"/>
     </row>
     <row r="443" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G443" s="13"/>
+      <c r="G443" s="10"/>
     </row>
     <row r="444" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G444" s="13"/>
+      <c r="G444" s="10"/>
     </row>
     <row r="445" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G445" s="13"/>
+      <c r="G445" s="10"/>
     </row>
     <row r="446" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G446" s="13"/>
+      <c r="G446" s="10"/>
     </row>
     <row r="447" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G447" s="13"/>
+      <c r="G447" s="10"/>
     </row>
     <row r="448" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G448" s="13"/>
+      <c r="G448" s="10"/>
     </row>
     <row r="449" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G449" s="13"/>
+      <c r="G449" s="10"/>
     </row>
     <row r="450" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G450" s="13"/>
+      <c r="G450" s="10"/>
     </row>
     <row r="451" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G451" s="13"/>
+      <c r="G451" s="10"/>
     </row>
     <row r="452" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G452" s="13"/>
+      <c r="G452" s="10"/>
     </row>
     <row r="453" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G453" s="13"/>
+      <c r="G453" s="10"/>
     </row>
     <row r="454" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G454" s="13"/>
+      <c r="G454" s="10"/>
     </row>
     <row r="455" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G455" s="13"/>
+      <c r="G455" s="10"/>
     </row>
     <row r="456" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G456" s="13"/>
+      <c r="G456" s="10"/>
     </row>
     <row r="457" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G457" s="13"/>
+      <c r="G457" s="10"/>
     </row>
     <row r="458" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G458" s="13"/>
+      <c r="G458" s="10"/>
     </row>
     <row r="459" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G459" s="13"/>
+      <c r="G459" s="10"/>
     </row>
     <row r="460" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G460" s="13"/>
+      <c r="G460" s="10"/>
     </row>
     <row r="461" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G461" s="13"/>
+      <c r="G461" s="10"/>
     </row>
     <row r="462" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G462" s="13"/>
+      <c r="G462" s="10"/>
     </row>
     <row r="463" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G463" s="13"/>
+      <c r="G463" s="10"/>
     </row>
     <row r="464" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G464" s="13"/>
+      <c r="G464" s="10"/>
     </row>
     <row r="465" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G465" s="13"/>
+      <c r="G465" s="10"/>
     </row>
     <row r="466" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G466" s="13"/>
+      <c r="G466" s="10"/>
     </row>
     <row r="467" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G467" s="13"/>
+      <c r="G467" s="10"/>
     </row>
     <row r="468" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G468" s="13"/>
+      <c r="G468" s="10"/>
     </row>
     <row r="469" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G469" s="13"/>
+      <c r="G469" s="10"/>
     </row>
     <row r="470" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G470" s="13"/>
+      <c r="G470" s="10"/>
     </row>
     <row r="471" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G471" s="13"/>
+      <c r="G471" s="10"/>
     </row>
     <row r="472" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G472" s="13"/>
+      <c r="G472" s="10"/>
     </row>
     <row r="473" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G473" s="13"/>
+      <c r="G473" s="10"/>
     </row>
     <row r="474" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G474" s="13"/>
+      <c r="G474" s="10"/>
     </row>
     <row r="475" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G475" s="13"/>
+      <c r="G475" s="10"/>
     </row>
     <row r="476" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G476" s="13"/>
+      <c r="G476" s="10"/>
     </row>
     <row r="477" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G477" s="13"/>
+      <c r="G477" s="10"/>
     </row>
     <row r="478" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G478" s="13"/>
+      <c r="G478" s="10"/>
     </row>
     <row r="479" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G479" s="13"/>
+      <c r="G479" s="10"/>
     </row>
     <row r="480" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G480" s="13"/>
+      <c r="G480" s="10"/>
     </row>
     <row r="481" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G481" s="13"/>
+      <c r="G481" s="10"/>
     </row>
     <row r="482" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G482" s="13"/>
+      <c r="G482" s="10"/>
     </row>
     <row r="483" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G483" s="13"/>
+      <c r="G483" s="10"/>
     </row>
     <row r="484" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G484" s="13"/>
+      <c r="G484" s="10"/>
     </row>
     <row r="485" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G485" s="13"/>
+      <c r="G485" s="10"/>
     </row>
     <row r="486" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G486" s="13"/>
+      <c r="G486" s="10"/>
     </row>
     <row r="487" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G487" s="13"/>
+      <c r="G487" s="10"/>
     </row>
     <row r="488" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G488" s="13"/>
+      <c r="G488" s="10"/>
     </row>
     <row r="489" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G489" s="13"/>
+      <c r="G489" s="10"/>
     </row>
     <row r="490" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G490" s="13"/>
+      <c r="G490" s="10"/>
     </row>
     <row r="491" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G491" s="13"/>
+      <c r="G491" s="10"/>
     </row>
     <row r="492" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G492" s="13"/>
+      <c r="G492" s="10"/>
     </row>
     <row r="493" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G493" s="13"/>
+      <c r="G493" s="10"/>
     </row>
     <row r="494" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G494" s="13"/>
+      <c r="G494" s="10"/>
     </row>
     <row r="495" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G495" s="13"/>
+      <c r="G495" s="10"/>
     </row>
     <row r="496" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G496" s="13"/>
+      <c r="G496" s="10"/>
     </row>
     <row r="497" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G497" s="13"/>
+      <c r="G497" s="10"/>
     </row>
     <row r="498" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G498" s="13"/>
+      <c r="G498" s="10"/>
     </row>
     <row r="499" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G499" s="13"/>
+      <c r="G499" s="10"/>
     </row>
     <row r="500" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G500" s="13"/>
+      <c r="G500" s="10"/>
     </row>
     <row r="501" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G501" s="13"/>
+      <c r="G501" s="10"/>
     </row>
     <row r="502" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G502" s="13"/>
+      <c r="G502" s="10"/>
     </row>
     <row r="503" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G503" s="13"/>
+      <c r="G503" s="10"/>
     </row>
     <row r="504" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G504" s="13"/>
+      <c r="G504" s="10"/>
     </row>
     <row r="505" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G505" s="13"/>
+      <c r="G505" s="10"/>
     </row>
     <row r="506" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G506" s="13"/>
+      <c r="G506" s="10"/>
     </row>
     <row r="507" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G507" s="13"/>
+      <c r="G507" s="10"/>
     </row>
     <row r="508" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G508" s="13"/>
+      <c r="G508" s="10"/>
     </row>
     <row r="509" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G509" s="13"/>
+      <c r="G509" s="10"/>
     </row>
     <row r="510" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G510" s="13"/>
+      <c r="G510" s="10"/>
     </row>
     <row r="511" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G511" s="13"/>
+      <c r="G511" s="10"/>
     </row>
     <row r="512" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G512" s="13"/>
+      <c r="G512" s="10"/>
     </row>
     <row r="513" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G513" s="13"/>
+      <c r="G513" s="10"/>
     </row>
     <row r="514" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G514" s="13"/>
+      <c r="G514" s="10"/>
     </row>
     <row r="515" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G515" s="13"/>
+      <c r="G515" s="10"/>
     </row>
     <row r="516" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G516" s="13"/>
+      <c r="G516" s="10"/>
     </row>
     <row r="517" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G517" s="13"/>
+      <c r="G517" s="10"/>
     </row>
     <row r="518" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G518" s="13"/>
+      <c r="G518" s="10"/>
     </row>
     <row r="519" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G519" s="13"/>
+      <c r="G519" s="10"/>
     </row>
     <row r="520" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G520" s="13"/>
+      <c r="G520" s="10"/>
     </row>
     <row r="521" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G521" s="13"/>
+      <c r="G521" s="10"/>
     </row>
     <row r="522" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G522" s="13"/>
+      <c r="G522" s="10"/>
     </row>
     <row r="523" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G523" s="13"/>
+      <c r="G523" s="10"/>
     </row>
     <row r="524" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G524" s="13"/>
+      <c r="G524" s="10"/>
     </row>
     <row r="525" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G525" s="13"/>
+      <c r="G525" s="10"/>
     </row>
     <row r="526" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G526" s="13"/>
+      <c r="G526" s="10"/>
     </row>
     <row r="527" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G527" s="13"/>
+      <c r="G527" s="10"/>
     </row>
     <row r="528" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G528" s="13"/>
+      <c r="G528" s="10"/>
     </row>
     <row r="529" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G529" s="13"/>
+      <c r="G529" s="10"/>
     </row>
     <row r="530" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G530" s="13"/>
+      <c r="G530" s="10"/>
     </row>
     <row r="531" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G531" s="13"/>
+      <c r="G531" s="10"/>
     </row>
     <row r="532" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G532" s="13"/>
+      <c r="G532" s="10"/>
     </row>
     <row r="533" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G533" s="13"/>
+      <c r="G533" s="10"/>
     </row>
     <row r="534" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G534" s="13"/>
+      <c r="G534" s="10"/>
     </row>
     <row r="535" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G535" s="13"/>
+      <c r="G535" s="10"/>
     </row>
     <row r="536" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G536" s="13"/>
+      <c r="G536" s="10"/>
     </row>
     <row r="537" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G537" s="13"/>
+      <c r="G537" s="10"/>
     </row>
     <row r="538" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G538" s="13"/>
+      <c r="G538" s="10"/>
     </row>
     <row r="539" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G539" s="13"/>
+      <c r="G539" s="10"/>
     </row>
     <row r="540" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G540" s="13"/>
+      <c r="G540" s="10"/>
     </row>
     <row r="541" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G541" s="13"/>
+      <c r="G541" s="10"/>
     </row>
     <row r="542" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G542" s="13"/>
+      <c r="G542" s="10"/>
     </row>
     <row r="543" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G543" s="13"/>
+      <c r="G543" s="10"/>
     </row>
     <row r="544" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G544" s="13"/>
+      <c r="G544" s="10"/>
     </row>
     <row r="545" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G545" s="13"/>
+      <c r="G545" s="10"/>
     </row>
     <row r="546" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G546" s="13"/>
+      <c r="G546" s="10"/>
     </row>
     <row r="547" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G547" s="13"/>
+      <c r="G547" s="10"/>
     </row>
     <row r="548" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G548" s="13"/>
+      <c r="G548" s="10"/>
     </row>
     <row r="549" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G549" s="13"/>
+      <c r="G549" s="10"/>
     </row>
     <row r="550" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G550" s="13"/>
+      <c r="G550" s="10"/>
     </row>
     <row r="551" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G551" s="13"/>
+      <c r="G551" s="10"/>
     </row>
     <row r="552" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G552" s="13"/>
+      <c r="G552" s="10"/>
     </row>
     <row r="553" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G553" s="13"/>
+      <c r="G553" s="10"/>
     </row>
     <row r="554" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G554" s="13"/>
+      <c r="G554" s="10"/>
     </row>
     <row r="555" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G555" s="13"/>
+      <c r="G555" s="10"/>
     </row>
     <row r="556" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G556" s="13"/>
+      <c r="G556" s="10"/>
     </row>
     <row r="557" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G557" s="13"/>
+      <c r="G557" s="10"/>
     </row>
     <row r="558" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G558" s="13"/>
+      <c r="G558" s="10"/>
     </row>
     <row r="559" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G559" s="13"/>
+      <c r="G559" s="10"/>
     </row>
     <row r="560" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G560" s="13"/>
+      <c r="G560" s="10"/>
     </row>
     <row r="561" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G561" s="13"/>
+      <c r="G561" s="10"/>
     </row>
     <row r="562" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G562" s="13"/>
+      <c r="G562" s="10"/>
     </row>
     <row r="563" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G563" s="13"/>
+      <c r="G563" s="10"/>
     </row>
     <row r="564" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G564" s="13"/>
+      <c r="G564" s="10"/>
     </row>
     <row r="565" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G565" s="13"/>
+      <c r="G565" s="10"/>
     </row>
     <row r="566" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G566" s="13"/>
+      <c r="G566" s="10"/>
     </row>
     <row r="567" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G567" s="13"/>
+      <c r="G567" s="10"/>
     </row>
     <row r="568" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G568" s="13"/>
+      <c r="G568" s="10"/>
     </row>
     <row r="569" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G569" s="13"/>
+      <c r="G569" s="10"/>
     </row>
     <row r="570" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G570" s="13"/>
+      <c r="G570" s="10"/>
     </row>
     <row r="571" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G571" s="13"/>
+      <c r="G571" s="10"/>
     </row>
     <row r="572" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G572" s="13"/>
+      <c r="G572" s="10"/>
     </row>
     <row r="573" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G573" s="13"/>
+      <c r="G573" s="10"/>
     </row>
     <row r="574" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G574" s="13"/>
+      <c r="G574" s="10"/>
     </row>
     <row r="575" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G575" s="13"/>
+      <c r="G575" s="10"/>
     </row>
     <row r="576" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G576" s="13"/>
+      <c r="G576" s="10"/>
     </row>
     <row r="577" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G577" s="13"/>
+      <c r="G577" s="10"/>
     </row>
     <row r="578" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G578" s="13"/>
+      <c r="G578" s="10"/>
     </row>
     <row r="579" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G579" s="13"/>
+      <c r="G579" s="10"/>
     </row>
     <row r="580" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G580" s="13"/>
+      <c r="G580" s="10"/>
     </row>
     <row r="581" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G581" s="13"/>
+      <c r="G581" s="10"/>
     </row>
     <row r="582" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G582" s="13"/>
+      <c r="G582" s="10"/>
     </row>
     <row r="583" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G583" s="13"/>
+      <c r="G583" s="10"/>
     </row>
     <row r="584" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G584" s="13"/>
+      <c r="G584" s="10"/>
     </row>
     <row r="585" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G585" s="13"/>
+      <c r="G585" s="10"/>
     </row>
     <row r="586" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G586" s="13"/>
+      <c r="G586" s="10"/>
     </row>
     <row r="587" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G587" s="13"/>
+      <c r="G587" s="10"/>
     </row>
     <row r="588" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G588" s="13"/>
+      <c r="G588" s="10"/>
     </row>
     <row r="589" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G589" s="13"/>
+      <c r="G589" s="10"/>
     </row>
     <row r="590" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G590" s="13"/>
+      <c r="G590" s="10"/>
     </row>
     <row r="591" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G591" s="13"/>
+      <c r="G591" s="10"/>
     </row>
     <row r="592" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G592" s="13"/>
+      <c r="G592" s="10"/>
     </row>
     <row r="593" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G593" s="13"/>
+      <c r="G593" s="10"/>
     </row>
     <row r="594" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G594" s="13"/>
+      <c r="G594" s="10"/>
     </row>
     <row r="595" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G595" s="13"/>
+      <c r="G595" s="10"/>
     </row>
     <row r="596" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G596" s="13"/>
+      <c r="G596" s="10"/>
     </row>
     <row r="597" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G597" s="13"/>
+      <c r="G597" s="10"/>
     </row>
     <row r="598" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G598" s="13"/>
+      <c r="G598" s="10"/>
     </row>
     <row r="599" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G599" s="13"/>
+      <c r="G599" s="10"/>
     </row>
     <row r="600" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G600" s="13"/>
+      <c r="G600" s="10"/>
     </row>
     <row r="601" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G601" s="13"/>
+      <c r="G601" s="10"/>
     </row>
     <row r="602" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G602" s="13"/>
+      <c r="G602" s="10"/>
     </row>
     <row r="603" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G603" s="13"/>
+      <c r="G603" s="10"/>
     </row>
     <row r="604" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G604" s="13"/>
+      <c r="G604" s="10"/>
     </row>
     <row r="605" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G605" s="13"/>
+      <c r="G605" s="10"/>
     </row>
     <row r="606" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G606" s="13"/>
+      <c r="G606" s="10"/>
     </row>
     <row r="607" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G607" s="13"/>
+      <c r="G607" s="10"/>
     </row>
     <row r="608" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G608" s="13"/>
+      <c r="G608" s="10"/>
     </row>
     <row r="609" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G609" s="13"/>
+      <c r="G609" s="10"/>
     </row>
     <row r="610" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G610" s="13"/>
+      <c r="G610" s="10"/>
     </row>
     <row r="611" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G611" s="13"/>
+      <c r="G611" s="10"/>
     </row>
     <row r="612" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G612" s="13"/>
+      <c r="G612" s="10"/>
     </row>
     <row r="613" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G613" s="13"/>
+      <c r="G613" s="10"/>
     </row>
     <row r="614" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G614" s="13"/>
+      <c r="G614" s="10"/>
     </row>
     <row r="615" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G615" s="13"/>
+      <c r="G615" s="10"/>
     </row>
     <row r="616" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G616" s="13"/>
+      <c r="G616" s="10"/>
     </row>
     <row r="617" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G617" s="13"/>
+      <c r="G617" s="10"/>
     </row>
     <row r="618" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G618" s="13"/>
+      <c r="G618" s="10"/>
     </row>
     <row r="619" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G619" s="13"/>
+      <c r="G619" s="10"/>
     </row>
     <row r="620" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G620" s="13"/>
+      <c r="G620" s="10"/>
     </row>
     <row r="621" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G621" s="13"/>
+      <c r="G621" s="10"/>
     </row>
     <row r="622" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G622" s="13"/>
+      <c r="G622" s="10"/>
     </row>
     <row r="623" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G623" s="13"/>
+      <c r="G623" s="10"/>
     </row>
     <row r="624" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G624" s="13"/>
+      <c r="G624" s="10"/>
     </row>
     <row r="625" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G625" s="13"/>
+      <c r="G625" s="10"/>
     </row>
     <row r="626" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G626" s="13"/>
+      <c r="G626" s="10"/>
     </row>
     <row r="627" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G627" s="13"/>
+      <c r="G627" s="10"/>
     </row>
     <row r="628" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G628" s="13"/>
+      <c r="G628" s="10"/>
     </row>
     <row r="629" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G629" s="13"/>
+      <c r="G629" s="10"/>
     </row>
     <row r="630" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G630" s="13"/>
+      <c r="G630" s="10"/>
     </row>
     <row r="631" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G631" s="13"/>
+      <c r="G631" s="10"/>
     </row>
     <row r="632" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G632" s="13"/>
+      <c r="G632" s="10"/>
     </row>
     <row r="633" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G633" s="13"/>
+      <c r="G633" s="10"/>
     </row>
     <row r="634" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G634" s="13"/>
+      <c r="G634" s="10"/>
     </row>
     <row r="635" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G635" s="13"/>
+      <c r="G635" s="10"/>
     </row>
     <row r="636" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G636" s="13"/>
+      <c r="G636" s="10"/>
     </row>
     <row r="637" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G637" s="13"/>
+      <c r="G637" s="10"/>
     </row>
     <row r="638" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G638" s="13"/>
+      <c r="G638" s="10"/>
     </row>
     <row r="639" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G639" s="13"/>
+      <c r="G639" s="10"/>
     </row>
     <row r="640" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G640" s="13"/>
+      <c r="G640" s="10"/>
     </row>
     <row r="641" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G641" s="13"/>
+      <c r="G641" s="10"/>
     </row>
     <row r="642" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G642" s="13"/>
+      <c r="G642" s="10"/>
     </row>
     <row r="643" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G643" s="13"/>
+      <c r="G643" s="10"/>
     </row>
     <row r="644" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G644" s="13"/>
+      <c r="G644" s="10"/>
     </row>
     <row r="645" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G645" s="13"/>
+      <c r="G645" s="10"/>
     </row>
     <row r="646" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G646" s="13"/>
+      <c r="G646" s="10"/>
     </row>
     <row r="647" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G647" s="13"/>
+      <c r="G647" s="10"/>
     </row>
     <row r="648" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G648" s="13"/>
+      <c r="G648" s="10"/>
     </row>
     <row r="649" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G649" s="13"/>
+      <c r="G649" s="10"/>
     </row>
     <row r="650" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G650" s="13"/>
+      <c r="G650" s="10"/>
     </row>
     <row r="651" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G651" s="13"/>
+      <c r="G651" s="10"/>
     </row>
     <row r="652" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G652" s="13"/>
+      <c r="G652" s="10"/>
     </row>
     <row r="653" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G653" s="13"/>
+      <c r="G653" s="10"/>
     </row>
     <row r="654" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G654" s="13"/>
+      <c r="G654" s="10"/>
     </row>
     <row r="655" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G655" s="13"/>
+      <c r="G655" s="10"/>
     </row>
     <row r="656" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G656" s="13"/>
+      <c r="G656" s="10"/>
     </row>
     <row r="657" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G657" s="13"/>
+      <c r="G657" s="10"/>
     </row>
     <row r="658" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G658" s="13"/>
+      <c r="G658" s="10"/>
     </row>
     <row r="659" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G659" s="13"/>
+      <c r="G659" s="10"/>
     </row>
     <row r="660" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G660" s="13"/>
+      <c r="G660" s="10"/>
     </row>
     <row r="661" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G661" s="13"/>
+      <c r="G661" s="10"/>
     </row>
     <row r="662" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G662" s="13"/>
+      <c r="G662" s="10"/>
     </row>
     <row r="663" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G663" s="13"/>
+      <c r="G663" s="10"/>
     </row>
     <row r="664" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G664" s="13"/>
+      <c r="G664" s="10"/>
     </row>
     <row r="665" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G665" s="13"/>
+      <c r="G665" s="10"/>
     </row>
     <row r="666" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G666" s="13"/>
+      <c r="G666" s="10"/>
     </row>
     <row r="667" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G667" s="13"/>
+      <c r="G667" s="10"/>
     </row>
     <row r="668" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G668" s="13"/>
+      <c r="G668" s="10"/>
     </row>
     <row r="669" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G669" s="13"/>
+      <c r="G669" s="10"/>
     </row>
     <row r="670" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G670" s="13"/>
+      <c r="G670" s="10"/>
     </row>
     <row r="671" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G671" s="13"/>
+      <c r="G671" s="10"/>
     </row>
     <row r="672" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G672" s="13"/>
+      <c r="G672" s="10"/>
     </row>
     <row r="673" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G673" s="13"/>
+      <c r="G673" s="10"/>
     </row>
     <row r="674" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G674" s="13"/>
+      <c r="G674" s="10"/>
     </row>
     <row r="675" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G675" s="13"/>
+      <c r="G675" s="10"/>
     </row>
     <row r="676" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G676" s="13"/>
+      <c r="G676" s="10"/>
     </row>
     <row r="677" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G677" s="13"/>
+      <c r="G677" s="10"/>
     </row>
     <row r="678" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G678" s="13"/>
+      <c r="G678" s="10"/>
     </row>
     <row r="679" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G679" s="13"/>
+      <c r="G679" s="10"/>
     </row>
     <row r="680" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G680" s="13"/>
+      <c r="G680" s="10"/>
     </row>
     <row r="681" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G681" s="13"/>
+      <c r="G681" s="10"/>
     </row>
     <row r="682" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G682" s="13"/>
+      <c r="G682" s="10"/>
     </row>
     <row r="683" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G683" s="13"/>
+      <c r="G683" s="10"/>
     </row>
     <row r="684" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G684" s="13"/>
+      <c r="G684" s="10"/>
     </row>
     <row r="685" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G685" s="13"/>
+      <c r="G685" s="10"/>
     </row>
     <row r="686" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G686" s="13"/>
+      <c r="G686" s="10"/>
     </row>
     <row r="687" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G687" s="13"/>
+      <c r="G687" s="10"/>
     </row>
     <row r="688" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G688" s="13"/>
+      <c r="G688" s="10"/>
     </row>
     <row r="689" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G689" s="13"/>
+      <c r="G689" s="10"/>
     </row>
     <row r="690" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G690" s="13"/>
+      <c r="G690" s="10"/>
     </row>
     <row r="691" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G691" s="13"/>
+      <c r="G691" s="10"/>
     </row>
     <row r="692" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G692" s="13"/>
+      <c r="G692" s="10"/>
     </row>
     <row r="693" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G693" s="13"/>
+      <c r="G693" s="10"/>
     </row>
     <row r="694" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G694" s="13"/>
+      <c r="G694" s="10"/>
     </row>
     <row r="695" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G695" s="13"/>
+      <c r="G695" s="10"/>
     </row>
     <row r="696" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G696" s="13"/>
+      <c r="G696" s="10"/>
     </row>
     <row r="697" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G697" s="13"/>
+      <c r="G697" s="10"/>
     </row>
     <row r="698" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G698" s="13"/>
+      <c r="G698" s="10"/>
     </row>
     <row r="699" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G699" s="13"/>
+      <c r="G699" s="10"/>
     </row>
     <row r="700" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G700" s="13"/>
+      <c r="G700" s="10"/>
     </row>
     <row r="701" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G701" s="13"/>
+      <c r="G701" s="10"/>
     </row>
     <row r="702" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G702" s="13"/>
+      <c r="G702" s="10"/>
     </row>
     <row r="703" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G703" s="13"/>
+      <c r="G703" s="10"/>
     </row>
     <row r="704" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G704" s="13"/>
+      <c r="G704" s="10"/>
     </row>
     <row r="705" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G705" s="13"/>
+      <c r="G705" s="10"/>
     </row>
     <row r="706" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G706" s="13"/>
+      <c r="G706" s="10"/>
     </row>
     <row r="707" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G707" s="13"/>
+      <c r="G707" s="10"/>
     </row>
     <row r="708" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G708" s="13"/>
+      <c r="G708" s="10"/>
     </row>
     <row r="709" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G709" s="13"/>
+      <c r="G709" s="10"/>
     </row>
     <row r="710" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G710" s="13"/>
+      <c r="G710" s="10"/>
     </row>
     <row r="711" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G711" s="13"/>
+      <c r="G711" s="10"/>
     </row>
     <row r="712" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G712" s="13"/>
+      <c r="G712" s="10"/>
     </row>
     <row r="713" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G713" s="13"/>
+      <c r="G713" s="10"/>
     </row>
     <row r="714" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G714" s="13"/>
+      <c r="G714" s="10"/>
     </row>
     <row r="715" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G715" s="13"/>
+      <c r="G715" s="10"/>
     </row>
     <row r="716" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G716" s="13"/>
+      <c r="G716" s="10"/>
     </row>
     <row r="717" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G717" s="13"/>
+      <c r="G717" s="10"/>
     </row>
     <row r="718" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G718" s="13"/>
+      <c r="G718" s="10"/>
     </row>
     <row r="719" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G719" s="13"/>
+      <c r="G719" s="10"/>
     </row>
     <row r="720" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G720" s="13"/>
+      <c r="G720" s="10"/>
     </row>
     <row r="721" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G721" s="13"/>
+      <c r="G721" s="10"/>
     </row>
     <row r="722" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G722" s="13"/>
+      <c r="G722" s="10"/>
     </row>
     <row r="723" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G723" s="13"/>
+      <c r="G723" s="10"/>
     </row>
     <row r="724" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G724" s="13"/>
+      <c r="G724" s="10"/>
     </row>
     <row r="725" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G725" s="13"/>
+      <c r="G725" s="10"/>
     </row>
     <row r="726" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G726" s="13"/>
+      <c r="G726" s="10"/>
     </row>
     <row r="727" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G727" s="13"/>
+      <c r="G727" s="10"/>
     </row>
     <row r="728" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G728" s="13"/>
+      <c r="G728" s="10"/>
     </row>
     <row r="729" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G729" s="13"/>
+      <c r="G729" s="10"/>
     </row>
     <row r="730" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G730" s="13"/>
+      <c r="G730" s="10"/>
     </row>
     <row r="731" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G731" s="13"/>
+      <c r="G731" s="10"/>
     </row>
     <row r="732" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G732" s="13"/>
+      <c r="G732" s="10"/>
     </row>
     <row r="733" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G733" s="13"/>
+      <c r="G733" s="10"/>
     </row>
     <row r="734" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G734" s="13"/>
+      <c r="G734" s="10"/>
     </row>
     <row r="735" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G735" s="13"/>
+      <c r="G735" s="10"/>
     </row>
     <row r="736" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G736" s="13"/>
+      <c r="G736" s="10"/>
     </row>
     <row r="737" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G737" s="13"/>
+      <c r="G737" s="10"/>
     </row>
     <row r="738" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G738" s="13"/>
+      <c r="G738" s="10"/>
     </row>
     <row r="739" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G739" s="13"/>
+      <c r="G739" s="10"/>
     </row>
     <row r="740" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G740" s="13"/>
+      <c r="G740" s="10"/>
     </row>
     <row r="741" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G741" s="13"/>
+      <c r="G741" s="10"/>
     </row>
     <row r="742" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G742" s="13"/>
+      <c r="G742" s="10"/>
     </row>
     <row r="743" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G743" s="13"/>
+      <c r="G743" s="10"/>
     </row>
     <row r="744" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G744" s="13"/>
+      <c r="G744" s="10"/>
     </row>
     <row r="745" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G745" s="13"/>
+      <c r="G745" s="10"/>
     </row>
     <row r="746" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G746" s="13"/>
+      <c r="G746" s="10"/>
     </row>
     <row r="747" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G747" s="13"/>
+      <c r="G747" s="10"/>
     </row>
     <row r="748" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G748" s="13"/>
+      <c r="G748" s="10"/>
     </row>
     <row r="749" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G749" s="13"/>
+      <c r="G749" s="10"/>
     </row>
     <row r="750" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G750" s="13"/>
+      <c r="G750" s="10"/>
     </row>
     <row r="751" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G751" s="13"/>
+      <c r="G751" s="10"/>
     </row>
     <row r="752" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G752" s="13"/>
+      <c r="G752" s="10"/>
     </row>
     <row r="753" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G753" s="13"/>
+      <c r="G753" s="10"/>
     </row>
     <row r="754" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G754" s="13"/>
+      <c r="G754" s="10"/>
     </row>
     <row r="755" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G755" s="13"/>
+      <c r="G755" s="10"/>
     </row>
     <row r="756" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G756" s="13"/>
+      <c r="G756" s="10"/>
     </row>
     <row r="757" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G757" s="13"/>
+      <c r="G757" s="10"/>
     </row>
     <row r="758" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G758" s="13"/>
+      <c r="G758" s="10"/>
     </row>
     <row r="759" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G759" s="13"/>
+      <c r="G759" s="10"/>
     </row>
     <row r="760" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G760" s="13"/>
+      <c r="G760" s="10"/>
     </row>
     <row r="761" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G761" s="13"/>
+      <c r="G761" s="10"/>
     </row>
     <row r="762" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G762" s="13"/>
+      <c r="G762" s="10"/>
     </row>
     <row r="763" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G763" s="13"/>
+      <c r="G763" s="10"/>
     </row>
     <row r="764" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G764" s="13"/>
+      <c r="G764" s="10"/>
     </row>
     <row r="765" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G765" s="13"/>
+      <c r="G765" s="10"/>
     </row>
     <row r="766" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G766" s="13"/>
+      <c r="G766" s="10"/>
     </row>
     <row r="767" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G767" s="13"/>
+      <c r="G767" s="10"/>
     </row>
     <row r="768" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G768" s="13"/>
+      <c r="G768" s="10"/>
     </row>
     <row r="769" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G769" s="13"/>
+      <c r="G769" s="10"/>
     </row>
     <row r="770" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G770" s="13"/>
+      <c r="G770" s="10"/>
     </row>
     <row r="771" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G771" s="13"/>
+      <c r="G771" s="10"/>
     </row>
     <row r="772" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G772" s="13"/>
+      <c r="G772" s="10"/>
     </row>
     <row r="773" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G773" s="13"/>
+      <c r="G773" s="10"/>
     </row>
     <row r="774" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G774" s="13"/>
+      <c r="G774" s="10"/>
     </row>
     <row r="775" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G775" s="13"/>
+      <c r="G775" s="10"/>
     </row>
     <row r="776" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G776" s="13"/>
+      <c r="G776" s="10"/>
     </row>
     <row r="777" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G777" s="13"/>
+      <c r="G777" s="10"/>
     </row>
     <row r="778" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G778" s="13"/>
+      <c r="G778" s="10"/>
     </row>
     <row r="779" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G779" s="13"/>
+      <c r="G779" s="10"/>
     </row>
     <row r="780" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G780" s="13"/>
+      <c r="G780" s="10"/>
     </row>
     <row r="781" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G781" s="13"/>
+      <c r="G781" s="10"/>
     </row>
     <row r="782" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G782" s="13"/>
+      <c r="G782" s="10"/>
     </row>
     <row r="783" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G783" s="13"/>
+      <c r="G783" s="10"/>
     </row>
     <row r="784" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G784" s="13"/>
+      <c r="G784" s="10"/>
     </row>
     <row r="785" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G785" s="13"/>
+      <c r="G785" s="10"/>
     </row>
     <row r="786" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G786" s="13"/>
+      <c r="G786" s="10"/>
     </row>
     <row r="787" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G787" s="13"/>
+      <c r="G787" s="10"/>
     </row>
     <row r="788" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G788" s="13"/>
+      <c r="G788" s="10"/>
     </row>
     <row r="789" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G789" s="13"/>
+      <c r="G789" s="10"/>
     </row>
     <row r="790" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G790" s="13"/>
+      <c r="G790" s="10"/>
     </row>
     <row r="791" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G791" s="13"/>
+      <c r="G791" s="10"/>
     </row>
     <row r="792" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G792" s="13"/>
+      <c r="G792" s="10"/>
     </row>
     <row r="793" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G793" s="13"/>
+      <c r="G793" s="10"/>
     </row>
     <row r="794" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G794" s="13"/>
+      <c r="G794" s="10"/>
     </row>
     <row r="795" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G795" s="13"/>
+      <c r="G795" s="10"/>
     </row>
     <row r="796" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G796" s="13"/>
+      <c r="G796" s="10"/>
     </row>
     <row r="797" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G797" s="13"/>
+      <c r="G797" s="10"/>
     </row>
     <row r="798" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G798" s="13"/>
+      <c r="G798" s="10"/>
     </row>
     <row r="799" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G799" s="13"/>
+      <c r="G799" s="10"/>
     </row>
     <row r="800" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G800" s="13"/>
+      <c r="G800" s="10"/>
     </row>
     <row r="801" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G801" s="13"/>
+      <c r="G801" s="10"/>
     </row>
     <row r="802" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G802" s="13"/>
+      <c r="G802" s="10"/>
     </row>
     <row r="803" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G803" s="13"/>
+      <c r="G803" s="10"/>
     </row>
     <row r="804" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G804" s="13"/>
+      <c r="G804" s="10"/>
     </row>
     <row r="805" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G805" s="13"/>
+      <c r="G805" s="10"/>
     </row>
     <row r="806" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G806" s="13"/>
+      <c r="G806" s="10"/>
     </row>
     <row r="807" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G807" s="13"/>
+      <c r="G807" s="10"/>
     </row>
     <row r="808" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G808" s="13"/>
+      <c r="G808" s="10"/>
     </row>
     <row r="809" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G809" s="13"/>
+      <c r="G809" s="10"/>
     </row>
     <row r="810" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G810" s="13"/>
+      <c r="G810" s="10"/>
     </row>
     <row r="811" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G811" s="13"/>
+      <c r="G811" s="10"/>
     </row>
     <row r="812" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G812" s="13"/>
+      <c r="G812" s="10"/>
     </row>
     <row r="813" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G813" s="13"/>
+      <c r="G813" s="10"/>
     </row>
     <row r="814" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G814" s="13"/>
+      <c r="G814" s="10"/>
     </row>
     <row r="815" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G815" s="13"/>
+      <c r="G815" s="10"/>
     </row>
     <row r="816" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G816" s="13"/>
+      <c r="G816" s="10"/>
     </row>
     <row r="817" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G817" s="13"/>
+      <c r="G817" s="10"/>
     </row>
     <row r="818" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G818" s="13"/>
+      <c r="G818" s="10"/>
     </row>
     <row r="819" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G819" s="13"/>
+      <c r="G819" s="10"/>
     </row>
     <row r="820" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G820" s="13"/>
+      <c r="G820" s="10"/>
     </row>
     <row r="821" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G821" s="13"/>
+      <c r="G821" s="10"/>
     </row>
     <row r="822" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G822" s="13"/>
+      <c r="G822" s="10"/>
     </row>
     <row r="823" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G823" s="13"/>
+      <c r="G823" s="10"/>
     </row>
     <row r="824" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G824" s="13"/>
+      <c r="G824" s="10"/>
     </row>
     <row r="825" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G825" s="13"/>
+      <c r="G825" s="10"/>
     </row>
     <row r="826" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G826" s="13"/>
+      <c r="G826" s="10"/>
     </row>
     <row r="827" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G827" s="13"/>
+      <c r="G827" s="10"/>
     </row>
     <row r="828" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G828" s="13"/>
+      <c r="G828" s="10"/>
     </row>
     <row r="829" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G829" s="13"/>
+      <c r="G829" s="10"/>
     </row>
     <row r="830" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G830" s="13"/>
+      <c r="G830" s="10"/>
     </row>
     <row r="831" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G831" s="13"/>
+      <c r="G831" s="10"/>
     </row>
     <row r="832" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G832" s="13"/>
+      <c r="G832" s="10"/>
     </row>
     <row r="833" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G833" s="13"/>
+      <c r="G833" s="10"/>
     </row>
     <row r="834" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G834" s="13"/>
+      <c r="G834" s="10"/>
     </row>
     <row r="835" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G835" s="13"/>
+      <c r="G835" s="10"/>
     </row>
     <row r="836" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G836" s="13"/>
+      <c r="G836" s="10"/>
     </row>
     <row r="837" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G837" s="13"/>
+      <c r="G837" s="10"/>
     </row>
     <row r="838" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G838" s="13"/>
+      <c r="G838" s="10"/>
     </row>
     <row r="839" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G839" s="13"/>
+      <c r="G839" s="10"/>
     </row>
     <row r="840" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G840" s="13"/>
+      <c r="G840" s="10"/>
     </row>
     <row r="841" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G841" s="13"/>
+      <c r="G841" s="10"/>
     </row>
     <row r="842" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G842" s="13"/>
+      <c r="G842" s="10"/>
     </row>
     <row r="843" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G843" s="13"/>
+      <c r="G843" s="10"/>
     </row>
     <row r="844" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G844" s="13"/>
+      <c r="G844" s="10"/>
     </row>
     <row r="845" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G845" s="13"/>
+      <c r="G845" s="10"/>
     </row>
     <row r="846" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G846" s="13"/>
+      <c r="G846" s="10"/>
     </row>
     <row r="847" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G847" s="13"/>
+      <c r="G847" s="10"/>
     </row>
     <row r="848" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G848" s="13"/>
+      <c r="G848" s="10"/>
     </row>
     <row r="849" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G849" s="13"/>
+      <c r="G849" s="10"/>
     </row>
     <row r="850" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G850" s="13"/>
+      <c r="G850" s="10"/>
     </row>
     <row r="851" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G851" s="13"/>
+      <c r="G851" s="10"/>
     </row>
     <row r="852" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G852" s="13"/>
+      <c r="G852" s="10"/>
     </row>
     <row r="853" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G853" s="13"/>
+      <c r="G853" s="10"/>
     </row>
     <row r="854" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G854" s="13"/>
+      <c r="G854" s="10"/>
     </row>
     <row r="855" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G855" s="13"/>
+      <c r="G855" s="10"/>
     </row>
     <row r="856" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G856" s="13"/>
+      <c r="G856" s="10"/>
     </row>
     <row r="857" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G857" s="13"/>
+      <c r="G857" s="10"/>
     </row>
     <row r="858" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G858" s="13"/>
+      <c r="G858" s="10"/>
     </row>
     <row r="859" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G859" s="13"/>
+      <c r="G859" s="10"/>
     </row>
     <row r="860" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G860" s="13"/>
+      <c r="G860" s="10"/>
     </row>
     <row r="861" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G861" s="13"/>
+      <c r="G861" s="10"/>
     </row>
     <row r="862" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G862" s="13"/>
+      <c r="G862" s="10"/>
     </row>
     <row r="863" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G863" s="13"/>
+      <c r="G863" s="10"/>
     </row>
     <row r="864" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G864" s="13"/>
+      <c r="G864" s="10"/>
     </row>
     <row r="865" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G865" s="13"/>
+      <c r="G865" s="10"/>
     </row>
     <row r="866" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G866" s="13"/>
+      <c r="G866" s="10"/>
     </row>
     <row r="867" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G867" s="13"/>
+      <c r="G867" s="10"/>
     </row>
     <row r="868" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G868" s="13"/>
+      <c r="G868" s="10"/>
     </row>
     <row r="869" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G869" s="13"/>
+      <c r="G869" s="10"/>
     </row>
     <row r="870" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G870" s="13"/>
+      <c r="G870" s="10"/>
     </row>
     <row r="871" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G871" s="13"/>
+      <c r="G871" s="10"/>
     </row>
     <row r="872" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G872" s="13"/>
+      <c r="G872" s="10"/>
     </row>
     <row r="873" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G873" s="13"/>
+      <c r="G873" s="10"/>
     </row>
     <row r="874" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G874" s="13"/>
+      <c r="G874" s="10"/>
     </row>
     <row r="875" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G875" s="13"/>
+      <c r="G875" s="10"/>
     </row>
     <row r="876" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G876" s="13"/>
+      <c r="G876" s="10"/>
     </row>
     <row r="877" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G877" s="13"/>
+      <c r="G877" s="10"/>
     </row>
     <row r="878" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G878" s="13"/>
+      <c r="G878" s="10"/>
     </row>
     <row r="879" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G879" s="13"/>
+      <c r="G879" s="10"/>
     </row>
     <row r="880" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G880" s="13"/>
+      <c r="G880" s="10"/>
     </row>
     <row r="881" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G881" s="13"/>
+      <c r="G881" s="10"/>
     </row>
     <row r="882" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G882" s="13"/>
+      <c r="G882" s="10"/>
     </row>
     <row r="883" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G883" s="13"/>
+      <c r="G883" s="10"/>
     </row>
     <row r="884" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G884" s="13"/>
+      <c r="G884" s="10"/>
     </row>
     <row r="885" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G885" s="13"/>
+      <c r="G885" s="10"/>
     </row>
     <row r="886" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G886" s="13"/>
+      <c r="G886" s="10"/>
     </row>
     <row r="887" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G887" s="13"/>
+      <c r="G887" s="10"/>
     </row>
     <row r="888" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G888" s="13"/>
+      <c r="G888" s="10"/>
     </row>
     <row r="889" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G889" s="13"/>
+      <c r="G889" s="10"/>
     </row>
     <row r="890" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G890" s="13"/>
+      <c r="G890" s="10"/>
     </row>
     <row r="891" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G891" s="13"/>
+      <c r="G891" s="10"/>
     </row>
     <row r="892" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G892" s="13"/>
+      <c r="G892" s="10"/>
     </row>
     <row r="893" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G893" s="13"/>
+      <c r="G893" s="10"/>
     </row>
     <row r="894" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G894" s="13"/>
+      <c r="G894" s="10"/>
     </row>
     <row r="895" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G895" s="13"/>
+      <c r="G895" s="10"/>
     </row>
     <row r="896" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G896" s="13"/>
+      <c r="G896" s="10"/>
     </row>
     <row r="897" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G897" s="13"/>
+      <c r="G897" s="10"/>
     </row>
     <row r="898" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G898" s="13"/>
+      <c r="G898" s="10"/>
     </row>
     <row r="899" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G899" s="13"/>
+      <c r="G899" s="10"/>
     </row>
     <row r="900" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G900" s="13"/>
+      <c r="G900" s="10"/>
     </row>
     <row r="901" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G901" s="13"/>
+      <c r="G901" s="10"/>
     </row>
     <row r="902" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G902" s="13"/>
+      <c r="G902" s="10"/>
     </row>
     <row r="903" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G903" s="13"/>
+      <c r="G903" s="10"/>
     </row>
     <row r="904" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G904" s="13"/>
+      <c r="G904" s="10"/>
     </row>
     <row r="905" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G905" s="13"/>
+      <c r="G905" s="10"/>
     </row>
     <row r="906" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G906" s="13"/>
+      <c r="G906" s="10"/>
     </row>
     <row r="907" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G907" s="13"/>
+      <c r="G907" s="10"/>
     </row>
     <row r="908" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G908" s="13"/>
+      <c r="G908" s="10"/>
     </row>
     <row r="909" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G909" s="13"/>
+      <c r="G909" s="10"/>
     </row>
     <row r="910" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G910" s="13"/>
+      <c r="G910" s="10"/>
     </row>
     <row r="911" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G911" s="13"/>
+      <c r="G911" s="10"/>
     </row>
     <row r="912" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G912" s="13"/>
+      <c r="G912" s="10"/>
     </row>
     <row r="913" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G913" s="13"/>
+      <c r="G913" s="10"/>
     </row>
     <row r="914" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G914" s="13"/>
+      <c r="G914" s="10"/>
     </row>
     <row r="915" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G915" s="13"/>
+      <c r="G915" s="10"/>
     </row>
     <row r="916" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G916" s="13"/>
+      <c r="G916" s="10"/>
     </row>
     <row r="917" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G917" s="13"/>
+      <c r="G917" s="10"/>
     </row>
     <row r="918" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G918" s="13"/>
+      <c r="G918" s="10"/>
     </row>
     <row r="919" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G919" s="13"/>
+      <c r="G919" s="10"/>
     </row>
     <row r="920" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G920" s="13"/>
+      <c r="G920" s="10"/>
     </row>
     <row r="921" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G921" s="13"/>
+      <c r="G921" s="10"/>
     </row>
     <row r="922" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G922" s="13"/>
+      <c r="G922" s="10"/>
     </row>
     <row r="923" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G923" s="13"/>
+      <c r="G923" s="10"/>
     </row>
     <row r="924" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G924" s="13"/>
+      <c r="G924" s="10"/>
     </row>
     <row r="925" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G925" s="13"/>
+      <c r="G925" s="10"/>
     </row>
     <row r="926" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G926" s="13"/>
+      <c r="G926" s="10"/>
     </row>
     <row r="927" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G927" s="13"/>
+      <c r="G927" s="10"/>
     </row>
     <row r="928" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G928" s="13"/>
+      <c r="G928" s="10"/>
     </row>
     <row r="929" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G929" s="13"/>
+      <c r="G929" s="10"/>
     </row>
     <row r="930" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G930" s="13"/>
+      <c r="G930" s="10"/>
     </row>
     <row r="931" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G931" s="13"/>
+      <c r="G931" s="10"/>
     </row>
     <row r="932" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G932" s="13"/>
+      <c r="G932" s="10"/>
     </row>
     <row r="933" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G933" s="13"/>
+      <c r="G933" s="10"/>
     </row>
     <row r="934" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G934" s="13"/>
+      <c r="G934" s="10"/>
     </row>
     <row r="935" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G935" s="13"/>
+      <c r="G935" s="10"/>
     </row>
     <row r="936" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G936" s="13"/>
+      <c r="G936" s="10"/>
     </row>
     <row r="937" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G937" s="13"/>
+      <c r="G937" s="10"/>
     </row>
     <row r="938" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G938" s="13"/>
+      <c r="G938" s="10"/>
     </row>
     <row r="939" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G939" s="13"/>
+      <c r="G939" s="10"/>
     </row>
     <row r="940" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G940" s="13"/>
+      <c r="G940" s="10"/>
     </row>
     <row r="941" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G941" s="13"/>
+      <c r="G941" s="10"/>
     </row>
     <row r="942" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G942" s="13"/>
+      <c r="G942" s="10"/>
     </row>
     <row r="943" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G943" s="13"/>
+      <c r="G943" s="10"/>
     </row>
     <row r="944" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G944" s="13"/>
+      <c r="G944" s="10"/>
     </row>
     <row r="945" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G945" s="13"/>
+      <c r="G945" s="10"/>
     </row>
     <row r="946" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G946" s="13"/>
+      <c r="G946" s="10"/>
     </row>
     <row r="947" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G947" s="13"/>
+      <c r="G947" s="10"/>
     </row>
     <row r="948" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G948" s="13"/>
+      <c r="G948" s="10"/>
     </row>
     <row r="949" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G949" s="13"/>
+      <c r="G949" s="10"/>
     </row>
     <row r="950" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G950" s="13"/>
+      <c r="G950" s="10"/>
     </row>
     <row r="951" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G951" s="13"/>
+      <c r="G951" s="10"/>
     </row>
     <row r="952" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G952" s="13"/>
+      <c r="G952" s="10"/>
     </row>
     <row r="953" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G953" s="13"/>
+      <c r="G953" s="10"/>
     </row>
     <row r="954" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G954" s="13"/>
+      <c r="G954" s="10"/>
     </row>
     <row r="955" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G955" s="13"/>
+      <c r="G955" s="10"/>
     </row>
     <row r="956" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G956" s="13"/>
+      <c r="G956" s="10"/>
     </row>
     <row r="957" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G957" s="13"/>
+      <c r="G957" s="10"/>
     </row>
     <row r="958" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G958" s="13"/>
+      <c r="G958" s="10"/>
     </row>
     <row r="959" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G959" s="13"/>
+      <c r="G959" s="10"/>
     </row>
     <row r="960" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G960" s="13"/>
+      <c r="G960" s="10"/>
     </row>
     <row r="961" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G961" s="13"/>
+      <c r="G961" s="10"/>
     </row>
     <row r="962" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G962" s="13"/>
+      <c r="G962" s="10"/>
     </row>
     <row r="963" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G963" s="13"/>
+      <c r="G963" s="10"/>
     </row>
     <row r="964" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G964" s="13"/>
+      <c r="G964" s="10"/>
     </row>
     <row r="965" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G965" s="13"/>
+      <c r="G965" s="10"/>
     </row>
     <row r="966" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G966" s="13"/>
+      <c r="G966" s="10"/>
     </row>
     <row r="967" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G967" s="13"/>
+      <c r="G967" s="10"/>
     </row>
     <row r="968" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G968" s="13"/>
+      <c r="G968" s="10"/>
     </row>
     <row r="969" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G969" s="13"/>
+      <c r="G969" s="10"/>
     </row>
     <row r="970" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G970" s="13"/>
+      <c r="G970" s="10"/>
     </row>
     <row r="971" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G971" s="13"/>
+      <c r="G971" s="10"/>
     </row>
     <row r="972" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G972" s="13"/>
+      <c r="G972" s="10"/>
     </row>
     <row r="973" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G973" s="13"/>
+      <c r="G973" s="10"/>
     </row>
     <row r="974" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G974" s="13"/>
+      <c r="G974" s="10"/>
     </row>
     <row r="975" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G975" s="13"/>
+      <c r="G975" s="10"/>
     </row>
     <row r="976" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G976" s="13"/>
+      <c r="G976" s="10"/>
     </row>
     <row r="977" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G977" s="13"/>
+      <c r="G977" s="10"/>
     </row>
     <row r="978" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G978" s="13"/>
+      <c r="G978" s="10"/>
     </row>
     <row r="979" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G979" s="13"/>
+      <c r="G979" s="10"/>
     </row>
     <row r="980" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G980" s="13"/>
+      <c r="G980" s="10"/>
     </row>
     <row r="981" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G981" s="13"/>
+      <c r="G981" s="10"/>
     </row>
     <row r="982" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G982" s="13"/>
+      <c r="G982" s="10"/>
     </row>
     <row r="983" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G983" s="13"/>
+      <c r="G983" s="10"/>
     </row>
     <row r="984" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G984" s="13"/>
+      <c r="G984" s="10"/>
     </row>
     <row r="985" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G985" s="13"/>
+      <c r="G985" s="10"/>
     </row>
     <row r="986" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G986" s="13"/>
+      <c r="G986" s="10"/>
     </row>
     <row r="987" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G987" s="13"/>
+      <c r="G987" s="10"/>
     </row>
     <row r="988" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G988" s="13"/>
+      <c r="G988" s="10"/>
     </row>
     <row r="989" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G989" s="13"/>
+      <c r="G989" s="10"/>
     </row>
     <row r="990" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G990" s="13"/>
+      <c r="G990" s="10"/>
     </row>
     <row r="991" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G991" s="13"/>
+      <c r="G991" s="10"/>
     </row>
     <row r="992" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G992" s="13"/>
+      <c r="G992" s="10"/>
     </row>
     <row r="993" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G993" s="13"/>
+      <c r="G993" s="10"/>
     </row>
     <row r="994" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G994" s="13"/>
+      <c r="G994" s="10"/>
     </row>
     <row r="995" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G995" s="13"/>
+      <c r="G995" s="10"/>
     </row>
     <row r="996" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G996" s="13"/>
+      <c r="G996" s="10"/>
     </row>
     <row r="997" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G997" s="13"/>
+      <c r="G997" s="10"/>
     </row>
     <row r="998" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G998" s="13"/>
+      <c r="G998" s="10"/>
     </row>
     <row r="999" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G999" s="13"/>
+      <c r="G999" s="10"/>
     </row>
     <row r="1000" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1000" s="13"/>
+      <c r="G1000" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B204">
@@ -8802,20 +8988,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF9D4D-DF5B-4F7E-93C8-CB74DC1EEDCB}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8833,10 +9021,10 @@
       <c r="B2">
         <v>30100</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <f>AVERAGE(B2:B202)</f>
         <v>45571</v>
       </c>
@@ -8848,10 +9036,10 @@
       <c r="B3">
         <v>30500</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <f>MODE(B2:B202)</f>
         <v>44600</v>
       </c>
@@ -8863,10 +9051,10 @@
       <c r="B4">
         <v>30900</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <f>MEDIAN(B2:B202)</f>
         <v>44950</v>
       </c>
@@ -8878,14 +9066,14 @@
       <c r="B5">
         <v>30900</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <f>_xlfn.VAR.S(B2:B202)</f>
         <v>55614632.160804018</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8894,10 +9082,10 @@
       <c r="B6">
         <v>31000</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f>_xlfn.STDEV.S(B2:B202)</f>
         <v>7457.5218511784478</v>
       </c>
@@ -8909,10 +9097,10 @@
       <c r="B7">
         <v>31000</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <f>COUNT(B2:B202)</f>
         <v>200</v>
       </c>
@@ -8924,10 +9112,10 @@
       <c r="B8">
         <v>31900</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>0.05</v>
       </c>
     </row>
@@ -8938,8 +9126,8 @@
       <c r="B9">
         <v>32200</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8948,10 +9136,10 @@
       <c r="B10">
         <v>32500</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -8962,8 +9150,8 @@
       <c r="B11">
         <v>32700</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8972,10 +9160,10 @@
       <c r="B12">
         <v>32900</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -8986,8 +9174,8 @@
       <c r="B13">
         <v>33000</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8996,8 +9184,8 @@
       <c r="B14">
         <v>33100</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9006,10 +9194,10 @@
       <c r="B15">
         <v>33200</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <f>CONFIDENCE(E8,E6,E7)</f>
         <v>1033.5408053719495</v>
       </c>
@@ -9021,30 +9209,30 @@
       <c r="B16">
         <v>33200</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <f>CONFIDENCE(E10,E6,E7)</f>
         <v>1480.2230880386023</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>33400</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <f>CONFIDENCE(E12,E6,E7)</f>
         <v>1181.9508922228156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9052,64 +9240,64 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>34100</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <f>E2-E15</f>
         <v>44537.459194628049</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <f>E2+E15</f>
         <v>46604.540805371951</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>34200</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <f>E2-E16</f>
         <v>44090.776911961395</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="15">
         <f>E2+E16</f>
         <v>47051.223088038605</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>34200</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <f>E2-E17</f>
         <v>44389.049107777188</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <f>E2+E17</f>
         <v>46752.950892222812</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9117,39 +9305,167 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>34400</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="29">
+        <f xml:space="preserve"> E6/SQRT(E7)</f>
+        <v>527.32642718151351</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="29">
+        <f xml:space="preserve"> I23 *1.65</f>
+        <v>870.08860484949719</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="29">
+        <f>E2 - K23</f>
+        <v>44700.911395150506</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="13">
+        <f>E2+K23</f>
+        <v>46441.088604849494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>35100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="25">
+        <f xml:space="preserve"> E6/SQRT(E7)</f>
+        <v>527.32642718151351</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="25">
+        <f xml:space="preserve"> I24 *2.57</f>
+        <v>1355.2289178564897</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="25">
+        <f>E2 - K24</f>
+        <v>44215.77108214351</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="15">
+        <f>E2+K24</f>
+        <v>46926.22891785649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>35700</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="25">
+        <f xml:space="preserve"> E6/SQRT(E7)</f>
+        <v>527.32642718151351</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="25">
+        <f xml:space="preserve"> I25 *1.96</f>
+        <v>1033.5597972757664</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="34">
+        <f>E2- K25</f>
+        <v>44537.440202724232</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="35">
+        <f>E2+K25</f>
+        <v>46604.559797275768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>36000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9157,111 +9473,233 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>37100</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>37300</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>37800</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>37900</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>38200</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>38200</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>38300</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>38700</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>38900</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>39100</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>39200</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>40000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>40100</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9269,7 +9707,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9277,7 +9715,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9285,7 +9723,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9293,7 +9731,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9301,7 +9739,7 @@
         <v>40700</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9309,7 +9747,7 @@
         <v>40700</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9317,7 +9755,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10553,6 +10991,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B202">
     <sortCondition ref="B1:B202"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>